--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Consume Social Media News (T2).xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Consume Social Media News (T2).xlsx
@@ -54157,107 +54157,107 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="V481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="W481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="X481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -54271,107 +54271,107 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="U482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="V482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="W482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="X482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>

--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Consume Social Media News (T2).xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Consume Social Media News (T2).xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -646,23 +646,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.563</t>
+          <t>0.562</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.561</t>
+          <t>0.549</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.512</t>
+          <t>0.513</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -683,17 +683,17 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.523</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.527</t>
+          <t>0.549</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.024 (P = 0.182)</t>
+          <t>-0.005 (P = 0.617)</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -703,23 +703,23 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.030 (P = 0.500)</t>
+          <t>-0.029 (P = 0.090)</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.009 (P = 0.806)</t>
+          <t>0.009 (P = 0.602)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.011 (P = 0.831)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-0.034 (P = 0.541)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.252</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.236</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6.336</t>
+          <t>6.340</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6.535</t>
+          <t>6.533</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.846)</t>
+          <t>0.072 (P = 0.305)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1151,23 +1151,23 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.034 (P = 0.868)</t>
+          <t>0.039 (P = 0.752)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.026 (P = 0.894)</t>
+          <t>-0.028 (P = 0.823)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.156 (P = 0.557)</t>
+          <t>0.156 (P = 0.394)</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.236 (P = 0.317)</t>
+          <t>0.236 (P = 0.108)</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.970)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1714,23 +1714,23 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.456 (P = 0.062)</t>
+          <t>0.456 (P = 0.006)</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.474 (P = 0.050)</t>
+          <t>0.474 (P = 0.001)</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.359 (P = 0.226)</t>
+          <t>0.359 (P = 0.094)</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.586 (P = 0.033)</t>
+          <t>0.586 (P = 0.006)</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.777</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.001)</t>
+          <t>0.200 (P = 0.022)</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2276,23 +2276,23 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.170 (P = 0.401)</t>
+          <t>0.170 (P = 0.272)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.350)</t>
+          <t>0.188 (P = 0.212)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.333 (P = 0.250)</t>
+          <t>0.333 (P = 0.147)</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.136 (P = 0.578)</t>
+          <t>0.136 (P = 0.470)</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.356</t>
+          <t>6.456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.146 (P = 0.100)</t>
+          <t>0.046 (P = 0.616)</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2839,23 +2839,23 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.647)</t>
+          <t>0.099 (P = 0.549)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-0.119 (P = 0.549)</t>
+          <t>-0.119 (P = 0.456)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0.167 (P = 0.594)</t>
+          <t>0.167 (P = 0.485)</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0.147 (P = 0.552)</t>
+          <t>0.147 (P = 0.415)</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.603</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.000)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3402,23 +3402,23 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.594 (P = 0.006)</t>
+          <t>0.594 (P = 0.000)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.305 (P = 0.124)</t>
+          <t>0.305 (P = 0.023)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0.776 (P = 0.008)</t>
+          <t>0.776 (P = 0.000)</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0.607 (P = 0.019)</t>
+          <t>0.607 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.130</t>
+          <t>6.132</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.253</t>
+          <t>6.242</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5.958</t>
+          <t>5.969</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.130 (P = 0.194)</t>
+          <t>-0.128 (P = 0.198)</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3965,23 +3965,23 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.085 (P = 0.721)</t>
+          <t>-0.085 (P = 0.649)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.294 (P = 0.197)</t>
+          <t>-0.273 (P = 0.118)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-0.182 (P = 0.581)</t>
+          <t>-0.182 (P = 0.434)</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0.115 (P = 0.699)</t>
+          <t>0.115 (P = 0.589)</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.883</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.023)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4528,23 +4528,23 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.664 (P = 0.006)</t>
+          <t>0.664 (P = 0.000)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.391 (P = 0.079)</t>
+          <t>0.391 (P = 0.008)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.082)</t>
+          <t>0.500 (P = 0.011)</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0.618 (P = 0.014)</t>
+          <t>0.618 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -5019,83 +5019,83 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.447</t>
+          <t>7.435</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7.403</t>
+          <t>7.415</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7.253</t>
+          <t>7.249</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6.994</t>
+          <t>7.040</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>7.437</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7.527</t>
+          <t>7.612</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>7.580</t>
+          <t>7.582</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>7.172</t>
+          <t>7.272</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.293</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.226 (P = 0.004)</t>
+          <t>0.159 (P = 0.030)</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.081 (P = 0.656)</t>
+          <t>0.177 (P = 0.174)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.177 (P = 0.296)</t>
+          <t>0.167 (P = 0.201)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>-0.081 (P = 0.764)</t>
+          <t>0.023 (P = 0.900)</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.197)</t>
+          <t>0.253 (P = 0.105)</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>5.257</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5580,28 +5580,28 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.038</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5.754</t>
+          <t>5.805</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.933</t>
+          <t>4.854</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4.965</t>
+          <t>4.958</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5.334</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5611,28 +5611,28 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5.257</t>
+          <t>5.209</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>5.844</t>
+          <t>5.851</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>5.096</t>
+          <t>5.165</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4.743</t>
+          <t>4.741</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.443 (P = 0.000)</t>
+          <t>0.086 (P = 0.347)</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -5642,23 +5642,23 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.219 (P = 0.437)</t>
+          <t>0.209 (P = 0.163)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0.090 (P = 0.723)</t>
+          <t>0.046 (P = 0.772)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0.163 (P = 0.673)</t>
+          <t>0.310 (P = 0.182)</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>-0.222 (P = 0.523)</t>
+          <t>-0.217 (P = 0.338)</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.409</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6143,28 +6143,28 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.342</t>
+          <t>7.458</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.445</t>
+          <t>7.471</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.460</t>
+          <t>7.566</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.983</t>
+          <t>7.101</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6174,28 +6174,28 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7.403</t>
+          <t>7.566</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>7.282</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>7.523</t>
+          <t>7.620</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>7.017</t>
+          <t>7.054</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.929)</t>
+          <t>-0.028 (P = 0.739)</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -6205,23 +6205,23 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.061 (P = 0.801)</t>
+          <t>0.108 (P = 0.496)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.258 (P = 0.246)</t>
+          <t>-0.189 (P = 0.196)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.846)</t>
+          <t>0.054 (P = 0.769)</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>0.034 (P = 0.916)</t>
+          <t>-0.048 (P = 0.815)</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.734</t>
+          <t>5.793</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6706,28 +6706,28 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.795</t>
+          <t>5.800</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>6.217</t>
+          <t>6.241</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.311</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.415</t>
+          <t>5.386</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>5.439</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6737,28 +6737,28 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5.448</t>
+          <t>5.496</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5.915</t>
+          <t>5.934</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4.811</t>
+          <t>4.892</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4.939</t>
+          <t>4.936</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>-0.331 (P = 0.002)</t>
+          <t>-0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -6768,23 +6768,23 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-0.346 (P = 0.160)</t>
+          <t>-0.304 (P = 0.061)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.203)</t>
+          <t>-0.307 (P = 0.035)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>-0.555 (P = 0.126)</t>
+          <t>-0.419 (P = 0.050)</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>-0.476 (P = 0.117)</t>
+          <t>-0.450 (P = 0.012)</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7269,28 +7269,28 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.454</t>
+          <t>6.539</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>7.027</t>
+          <t>7.047</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.111</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5.846</t>
+          <t>5.936</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>6.257</t>
+          <t>6.389</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7300,28 +7300,28 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6.205</t>
+          <t>6.325</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6.747</t>
+          <t>6.813</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>5.917</t>
+          <t>6.191</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5.723</t>
+          <t>5.815</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.612)</t>
+          <t>-0.151 (P = 0.059)</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -7331,23 +7331,23 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-0.250 (P = 0.338)</t>
+          <t>-0.215 (P = 0.151)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>-0.280 (P = 0.220)</t>
+          <t>-0.234 (P = 0.065)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>-0.178 (P = 0.642)</t>
+          <t>0.080 (P = 0.701)</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>-0.124 (P = 0.722)</t>
+          <t>-0.121 (P = 0.518)</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.262</t>
+          <t>6.674</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7832,28 +7832,28 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.566</t>
+          <t>6.641</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>7.170</t>
+          <t>7.137</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>6.243</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6.209</t>
+          <t>6.227</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -7863,28 +7863,28 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6.300</t>
+          <t>6.341</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7.032</t>
+          <t>7.037</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>5.795</t>
+          <t>5.822</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>6.006</t>
+          <t>6.147</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.119)</t>
+          <t>-0.199 (P = 0.025)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -7894,23 +7894,23 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>-0.265 (P = 0.262)</t>
+          <t>-0.300 (P = 0.095)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>-0.138 (P = 0.493)</t>
+          <t>-0.099 (P = 0.469)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>-0.384 (P = 0.298)</t>
+          <t>-0.421 (P = 0.057)</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>-0.204 (P = 0.505)</t>
+          <t>-0.080 (P = 0.698)</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.869</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -8395,28 +8395,28 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5.477</t>
+          <t>5.478</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6.269</t>
+          <t>6.272</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.584</t>
+          <t>5.611</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.699</t>
+          <t>5.855</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5.496</t>
+          <t>5.585</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8426,28 +8426,28 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>5.046</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6.087</t>
+          <t>6.152</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>5.256</t>
+          <t>5.401</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>5.249</t>
+          <t>5.365</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.000)</t>
+          <t>-0.284 (P = 0.004)</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -8457,23 +8457,23 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>-0.432 (P = 0.102)</t>
+          <t>-0.417 (P = 0.019)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>-0.182 (P = 0.434)</t>
+          <t>-0.121 (P = 0.446)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr">
         <is>
-          <t>-0.329 (P = 0.374)</t>
+          <t>-0.210 (P = 0.423)</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>-0.450 (P = 0.167)</t>
+          <t>-0.491 (P = 0.028)</t>
         </is>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.931</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -8958,28 +8958,28 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7.383</t>
+          <t>7.423</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>7.443</t>
+          <t>7.490</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6.667</t>
+          <t>6.638</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6.937</t>
+          <t>7.037</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>6.395</t>
+          <t>6.510</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -8989,28 +8989,28 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>6.354</t>
+          <t>6.480</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6.654</t>
+          <t>6.737</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>5.945</t>
+          <t>6.094</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>6.354</t>
+          <t>6.476</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.000)</t>
+          <t>-0.727 (P = 0.000)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -9020,23 +9020,23 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-1.029 (P = 0.000)</t>
+          <t>-0.943 (P = 0.000)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>-0.789 (P = 0.000)</t>
+          <t>-0.753 (P = 0.000)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr">
         <is>
-          <t>-0.722 (P = 0.045)</t>
+          <t>-0.544 (P = 0.030)</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>-0.582 (P = 0.053)</t>
+          <t>-0.561 (P = 0.009)</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9521,28 +9521,28 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.266</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>7.764</t>
+          <t>7.777</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.966</t>
+          <t>6.949</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>6.880</t>
+          <t>6.914</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -9552,28 +9552,28 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>6.860</t>
+          <t>6.934</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>7.153</t>
+          <t>7.177</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>6.354</t>
+          <t>6.497</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>6.182</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.149)</t>
+          <t>-0.531 (P = 0.000)</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -9583,23 +9583,23 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>-0.365 (P = 0.124)</t>
+          <t>-0.332 (P = 0.037)</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-0.612 (P = 0.002)</t>
+          <t>-0.600 (P = 0.000)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>-0.613 (P = 0.079)</t>
+          <t>-0.451 (P = 0.018)</t>
         </is>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>-0.698 (P = 0.024)</t>
+          <t>-0.737 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.089</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10084,28 +10084,28 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.082</t>
+          <t>3.987</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4.564</t>
+          <t>4.553</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>4.117</t>
+          <t>4.032</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4.343</t>
+          <t>4.335</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.887</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -10115,28 +10115,28 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>3.418</t>
+          <t>3.342</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>4.333</t>
+          <t>4.454</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>3.596</t>
+          <t>3.710</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>3.651</t>
+          <t>3.684</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-0.263 (P = 0.029)</t>
+          <t>-0.384 (P = 0.000)</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -10146,23 +10146,23 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>-0.664 (P = 0.020)</t>
+          <t>-0.645 (P = 0.001)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-0.230 (P = 0.391)</t>
+          <t>-0.099 (P = 0.581)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr">
         <is>
-          <t>-0.522 (P = 0.190)</t>
+          <t>-0.323 (P = 0.162)</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>-0.692 (P = 0.042)</t>
+          <t>-0.652 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.694</t>
+          <t>7.038</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10647,28 +10647,28 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>7.023</t>
+          <t>7.060</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>7.266</t>
+          <t>7.275</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>6.719</t>
+          <t>6.873</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6.673</t>
+          <t>6.683</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -10678,28 +10678,28 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>6.445</t>
+          <t>6.556</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>6.880</t>
+          <t>6.918</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.516</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>6.083</t>
+          <t>6.066</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>-0.163 (P = 0.095)</t>
+          <t>-0.446 (P = 0.000)</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -10709,23 +10709,23 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>-0.578 (P = 0.012)</t>
+          <t>-0.504 (P = 0.001)</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>-0.386 (P = 0.055)</t>
+          <t>-0.356 (P = 0.010)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr">
         <is>
-          <t>-0.300 (P = 0.346)</t>
+          <t>-0.357 (P = 0.092)</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>-0.589 (P = 0.038)</t>
+          <t>-0.617 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11210,28 +11210,28 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6.730</t>
+          <t>6.854</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>7.187</t>
+          <t>7.310</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>6.595</t>
+          <t>6.664</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>6.758</t>
+          <t>6.855</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>7.109</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -11241,28 +11241,28 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>6.809</t>
+          <t>7.009</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>7.312</t>
+          <t>7.438</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>6.690</t>
+          <t>6.883</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>6.623</t>
+          <t>6.776</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>0.112 (P = 0.175)</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -11272,23 +11272,23 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>0.078 (P = 0.737)</t>
+          <t>0.155 (P = 0.288)</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>0.125 (P = 0.522)</t>
+          <t>0.127 (P = 0.358)</t>
         </is>
       </c>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr">
         <is>
-          <t>0.096 (P = 0.784)</t>
+          <t>0.219 (P = 0.331)</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>-0.135 (P = 0.624)</t>
+          <t>-0.079 (P = 0.658)</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.460</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11773,28 +11773,28 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6.757</t>
+          <t>6.794</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>7.307</t>
+          <t>7.360</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6.513</t>
+          <t>6.648</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>6.352</t>
+          <t>6.395</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -11804,28 +11804,28 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>6.535</t>
+          <t>6.569</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>7.098</t>
+          <t>7.179</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>6.582</t>
+          <t>6.697</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>6.275</t>
+          <t>6.382</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>0.245 (P = 0.018)</t>
+          <t>-0.119 (P = 0.195)</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -11835,23 +11835,23 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>-0.223 (P = 0.367)</t>
+          <t>-0.225 (P = 0.184)</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>-0.209 (P = 0.308)</t>
+          <t>-0.182 (P = 0.201)</t>
         </is>
       </c>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr">
         <is>
-          <t>0.069 (P = 0.843)</t>
+          <t>0.049 (P = 0.844)</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>-0.077 (P = 0.814)</t>
+          <t>-0.013 (P = 0.954)</t>
         </is>
       </c>
     </row>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -12336,28 +12336,28 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.756</t>
+          <t>7.783</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>7.858</t>
+          <t>7.906</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>7.830</t>
+          <t>7.861</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>7.553</t>
+          <t>7.567</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>7.104</t>
+          <t>7.199</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -12367,28 +12367,28 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>7.060</t>
+          <t>7.176</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>7.461</t>
+          <t>7.536</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>6.810</t>
+          <t>6.933</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>6.758</t>
+          <t>6.819</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>-0.566 (P = 0.000)</t>
+          <t>-0.605 (P = 0.000)</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -12398,23 +12398,23 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>-0.696 (P = 0.001)</t>
+          <t>-0.607 (P = 0.000)</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>-0.397 (P = 0.029)</t>
+          <t>-0.370 (P = 0.003)</t>
         </is>
       </c>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr">
         <is>
-          <t>-1.020 (P = 0.000)</t>
+          <t>-0.927 (P = 0.000)</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>-0.795 (P = 0.002)</t>
+          <t>-0.749 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>6.398</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -12899,28 +12899,28 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6.256</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>6.434</t>
+          <t>6.570</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>6.059</t>
+          <t>6.135</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>6.440</t>
+          <t>6.432</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.535</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -12930,28 +12930,28 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>6.577</t>
+          <t>6.713</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>6.677</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>6.047</t>
+          <t>6.096</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>6.228</t>
+          <t>6.458</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.101)</t>
+          <t>0.138 (P = 0.124)</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -12961,23 +12961,23 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>0.321 (P = 0.179)</t>
+          <t>0.404 (P = 0.016)</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>0.198 (P = 0.374)</t>
+          <t>0.107 (P = 0.515)</t>
         </is>
       </c>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.971)</t>
+          <t>-0.038 (P = 0.858)</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>-0.212 (P = 0.434)</t>
+          <t>0.026 (P = 0.873)</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.470</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -13462,28 +13462,28 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.485</t>
+          <t>7.504</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>7.904</t>
+          <t>7.909</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>6.971</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>7.033</t>
+          <t>7.051</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -13493,28 +13493,28 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>7.542</t>
+          <t>7.564</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>7.907</t>
+          <t>7.985</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>7.109</t>
+          <t>7.162</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>7.049</t>
+          <t>7.169</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.000)</t>
+          <t>0.100 (P = 0.136)</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -13524,23 +13524,23 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.816)</t>
+          <t>0.061 (P = 0.651)</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>0.003 (P = 0.989)</t>
+          <t>0.076 (P = 0.455)</t>
         </is>
       </c>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr">
         <is>
-          <t>0.137 (P = 0.713)</t>
+          <t>0.191 (P = 0.285)</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.960)</t>
+          <t>0.118 (P = 0.445)</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.996</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -14025,28 +14025,28 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>7.043</t>
+          <t>7.040</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>7.294</t>
+          <t>7.371</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.529</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>6.616</t>
+          <t>6.639</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -14056,28 +14056,28 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>6.839</t>
+          <t>6.876</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>7.210</t>
+          <t>7.236</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>6.184</t>
+          <t>6.293</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>6.094</t>
+          <t>6.175</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>0.297 (P = 0.015)</t>
+          <t>-0.221 (P = 0.002)</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -14087,23 +14087,23 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>-0.204 (P = 0.461)</t>
+          <t>-0.163 (P = 0.198)</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>-0.084 (P = 0.730)</t>
+          <t>-0.135 (P = 0.274)</t>
         </is>
       </c>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr">
         <is>
-          <t>-0.246 (P = 0.553)</t>
+          <t>-0.236 (P = 0.174)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>-0.522 (P = 0.179)</t>
+          <t>-0.464 (P = 0.003)</t>
         </is>
       </c>
     </row>
@@ -14578,83 +14578,83 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.449</t>
+          <t>4.661</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4.668</t>
+          <t>4.645</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>5.413</t>
+          <t>5.410</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>3.790</t>
+          <t>3.662</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>4.220</t>
+          <t>4.165</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>5.177</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>5.234</t>
+          <t>5.129</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>5.906</t>
+          <t>5.860</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>4.447</t>
+          <t>4.149</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>4.412</t>
+          <t>4.272</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>0.728 (P = 0.000)</t>
+          <t>0.400 (P = 0.000)</t>
         </is>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>0.566 (P = 0.059)</t>
+          <t>0.484 (P = 0.010)</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>0.493 (P = 0.067)</t>
+          <t>0.450 (P = 0.011)</t>
         </is>
       </c>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr">
         <is>
-          <t>0.657 (P = 0.105)</t>
+          <t>0.486 (P = 0.043)</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>0.193 (P = 0.597)</t>
+          <t>0.108 (P = 0.588)</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.697</t>
+          <t>6.030</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -15139,28 +15139,28 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>6.101</t>
+          <t>6.124</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.298</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>5.515</t>
+          <t>5.540</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>5.838</t>
+          <t>5.858</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>6.320</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -15170,28 +15170,28 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.158</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>6.739</t>
+          <t>6.812</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
+          <t>6.037</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
           <t>6.136</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>6.033</t>
-        </is>
-      </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>0.624 (P = 0.000)</t>
+          <t>0.345 (P = 0.000)</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
@@ -15201,23 +15201,23 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>-0.006 (P = 0.982)</t>
+          <t>0.033 (P = 0.815)</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>0.453 (P = 0.061)</t>
+          <t>0.515 (P = 0.000)</t>
         </is>
       </c>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr">
         <is>
-          <t>0.622 (P = 0.134)</t>
+          <t>0.497 (P = 0.007)</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>0.195 (P = 0.560)</t>
+          <t>0.278 (P = 0.130)</t>
         </is>
       </c>
     </row>
@@ -15692,83 +15692,83 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5.396</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5.594</t>
+          <t>5.671</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6.208</t>
+          <t>6.244</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>4.752</t>
+          <t>4.773</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.199</t>
+          <t>5.200</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>5.628</t>
+          <t>5.699</t>
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>5.756</t>
+          <t>5.724</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>6.246</t>
+          <t>6.451</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>4.895</t>
+          <t>4.816</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>4.916</t>
+          <t>4.941</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.049)</t>
+          <t>0.055 (P = 0.546)</t>
         </is>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr">
         <is>
-          <t>0.162 (P = 0.574)</t>
+          <t>0.052 (P = 0.774)</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>0.038 (P = 0.877)</t>
+          <t>0.207 (P = 0.149)</t>
         </is>
       </c>
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr">
         <is>
-          <t>0.143 (P = 0.728)</t>
+          <t>0.043 (P = 0.861)</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>-0.283 (P = 0.440)</t>
+          <t>-0.259 (P = 0.178)</t>
         </is>
       </c>
     </row>
@@ -16243,83 +16243,83 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.699</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.718</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>6.969</t>
+          <t>7.033</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>6.344</t>
+          <t>6.338</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>6.255</t>
+          <t>6.336</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>6.583</t>
+          <t>6.630</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>6.943</t>
+          <t>7.033</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>5.946</t>
+          <t>6.061</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>5.899</t>
+          <t>6.103</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.117)</t>
+          <t>-0.115 (P = 0.176)</t>
         </is>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr">
         <is>
-          <t>-0.112 (P = 0.673)</t>
+          <t>-0.088 (P = 0.603)</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>-0.026 (P = 0.911)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr">
         <is>
-          <t>-0.398 (P = 0.312)</t>
+          <t>-0.277 (P = 0.200)</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>-0.356 (P = 0.300)</t>
+          <t>-0.233 (P = 0.206)</t>
         </is>
       </c>
     </row>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.279</t>
+          <t>5.514</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -16804,28 +16804,28 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5.580</t>
+          <t>5.597</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5.927</t>
+          <t>5.909</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>5.097</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>5.108</t>
+          <t>5.104</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>5.101</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -16835,28 +16835,28 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>5.254</t>
+          <t>5.260</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>5.373</t>
+          <t>5.437</t>
         </is>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>4.626</t>
+          <t>4.858</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>4.800</t>
+          <t>4.859</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.114)</t>
+          <t>-0.333 (P = 0.001)</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -16866,23 +16866,23 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>-0.326 (P = 0.215)</t>
+          <t>-0.338 (P = 0.076)</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>-0.553 (P = 0.032)</t>
+          <t>-0.472 (P = 0.003)</t>
         </is>
       </c>
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr">
         <is>
-          <t>-0.471 (P = 0.209)</t>
+          <t>-0.142 (P = 0.558)</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>-0.308 (P = 0.334)</t>
+          <t>-0.245 (P = 0.270)</t>
         </is>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5.724</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -17367,28 +17367,28 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6.307</t>
+          <t>6.329</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6.776</t>
+          <t>6.784</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>5.584</t>
+          <t>5.545</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>5.966</t>
+          <t>5.955</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.362</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -17398,28 +17398,28 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.466</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>6.859</t>
+          <t>6.877</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>5.567</t>
+          <t>5.719</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>0.587 (P = 0.000)</t>
+          <t>0.078 (P = 0.249)</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -17429,23 +17429,23 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>0.131 (P = 0.638)</t>
+          <t>0.137 (P = 0.303)</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>0.082 (P = 0.737)</t>
+          <t>0.093 (P = 0.394)</t>
         </is>
       </c>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr">
         <is>
-          <t>-0.017 (P = 0.966)</t>
+          <t>0.174 (P = 0.308)</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>-0.156 (P = 0.660)</t>
+          <t>-0.119 (P = 0.425)</t>
         </is>
       </c>
     </row>
@@ -17920,7 +17920,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.542</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -17930,28 +17930,28 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3.498</t>
+          <t>3.475</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>3.994</t>
+          <t>3.986</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.110</t>
+          <t>3.101</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>3.222</t>
+          <t>3.225</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>3.776</t>
+          <t>3.769</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -17961,28 +17961,28 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>3.653</t>
+          <t>3.631</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>4.346</t>
+          <t>4.305</t>
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>3.135</t>
+          <t>3.197</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>3.521</t>
+          <t>3.516</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>0.176 (P = 0.070)</t>
+          <t>0.226 (P = 0.001)</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -17992,23 +17992,23 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>0.155 (P = 0.485)</t>
+          <t>0.156 (P = 0.248)</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>0.352 (P = 0.115)</t>
+          <t>0.319 (P = 0.013)</t>
         </is>
       </c>
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr">
         <is>
-          <t>0.025 (P = 0.935)</t>
+          <t>0.096 (P = 0.569)</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>0.300 (P = 0.242)</t>
+          <t>0.291 (P = 0.040)</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.733</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -18493,28 +18493,28 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7.601</t>
+          <t>7.697</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7.723</t>
+          <t>7.748</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.935</t>
+          <t>8.025</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>7.434</t>
+          <t>7.483</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -18524,28 +18524,28 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>7.619</t>
+          <t>7.689</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>7.861</t>
+          <t>7.947</t>
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>8.179</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>7.663</t>
+          <t>7.756</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.147 (P = 0.031)</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -18555,23 +18555,23 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>0.018 (P = 0.919)</t>
+          <t>-0.008 (P = 0.950)</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>0.137 (P = 0.401)</t>
+          <t>0.199 (P = 0.089)</t>
         </is>
       </c>
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr">
         <is>
-          <t>0.065 (P = 0.780)</t>
+          <t>0.154 (P = 0.313)</t>
         </is>
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>0.229 (P = 0.302)</t>
+          <t>0.273 (P = 0.093)</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.495</t>
+          <t>4.621</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.699</t>
+          <t>4.698</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -19066,17 +19066,17 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.189</t>
+          <t>4.171</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>4.468</t>
+          <t>4.508</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -19086,28 +19086,28 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>4.927</t>
+          <t>4.925</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>5.061</t>
+          <t>5.054</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>4.339</t>
+          <t>4.398</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>4.707</t>
+          <t>4.695</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>0.328 (P = 0.001)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -19117,23 +19117,23 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>0.228 (P = 0.328)</t>
+          <t>0.228 (P = 0.032)</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>0.208 (P = 0.342)</t>
+          <t>0.201 (P = 0.029)</t>
         </is>
       </c>
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr">
         <is>
-          <t>0.150 (P = 0.636)</t>
+          <t>0.227 (P = 0.061)</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>0.239 (P = 0.406)</t>
+          <t>0.187 (P = 0.060)</t>
         </is>
       </c>
     </row>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.790</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -19629,17 +19629,17 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.349</t>
+          <t>4.326</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>4.551</t>
+          <t>4.571</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>4.890</t>
+          <t>4.903</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -19649,28 +19649,28 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>4.842</t>
+          <t>4.848</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>5.234</t>
+          <t>5.219</t>
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>4.412</t>
+          <t>4.484</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>4.787</t>
+          <t>4.799</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.257)</t>
+          <t>0.246 (P = 0.000)</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -19680,23 +19680,23 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>0.209 (P = 0.309)</t>
+          <t>0.216 (P = 0.049)</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>0.336 (P = 0.090)</t>
+          <t>0.322 (P = 0.001)</t>
         </is>
       </c>
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.822)</t>
+          <t>0.158 (P = 0.177)</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>0.236 (P = 0.359)</t>
+          <t>0.228 (P = 0.061)</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -20181,28 +20181,28 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>7.245</t>
+          <t>7.253</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>7.450</t>
+          <t>7.459</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>7.548</t>
+          <t>7.554</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>7.206</t>
+          <t>7.247</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>7.609</t>
+          <t>7.631</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -20212,28 +20212,28 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>7.509</t>
+          <t>7.532</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>7.711</t>
+          <t>7.718</t>
         </is>
       </c>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>7.674</t>
+          <t>7.739</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>7.489</t>
+          <t>7.495</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>0.520 (P = 0.000)</t>
+          <t>0.249 (P = 0.000)</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -20243,23 +20243,23 @@
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>0.265 (P = 0.206)</t>
+          <t>0.279 (P = 0.004)</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>0.260 (P = 0.132)</t>
+          <t>0.259 (P = 0.006)</t>
         </is>
       </c>
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr">
         <is>
-          <t>0.125 (P = 0.627)</t>
+          <t>0.185 (P = 0.088)</t>
         </is>
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.248)</t>
+          <t>0.247 (P = 0.014)</t>
         </is>
       </c>
     </row>
@@ -20734,7 +20734,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>7.441</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -20744,28 +20744,28 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>7.205</t>
+          <t>7.260</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>7.655</t>
+          <t>7.727</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>7.293</t>
+          <t>7.389</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>7.110</t>
+          <t>7.179</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -20775,28 +20775,28 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.341</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>7.506</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>7.298</t>
+          <t>7.396</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>7.486</t>
+          <t>7.596</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.000)</t>
+          <t>0.039 (P = 0.672)</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -20806,23 +20806,23 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.949)</t>
+          <t>0.081 (P = 0.674)</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.462)</t>
+          <t>-0.162 (P = 0.254)</t>
         </is>
       </c>
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr">
         <is>
-          <t>0.005 (P = 0.988)</t>
+          <t>0.007 (P = 0.977)</t>
         </is>
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>0.376 (P = 0.218)</t>
+          <t>0.417 (P = 0.056)</t>
         </is>
       </c>
     </row>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.288</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -21306,28 +21306,28 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6.433</t>
+          <t>6.379</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>7.120</t>
+          <t>7.141</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.124</t>
+          <t>6.174</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6.365</t>
+          <t>6.377</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>6.010</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -21337,28 +21337,28 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>5.984</t>
+          <t>6.013</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>6.456</t>
+          <t>6.590</t>
         </is>
       </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>5.687</t>
+          <t>5.799</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>5.503</t>
+          <t>5.575</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.012)</t>
+          <t>-0.516 (P = 0.000)</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -21368,23 +21368,23 @@
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>-0.449 (P = 0.088)</t>
+          <t>-0.366 (P = 0.046)</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>-0.664 (P = 0.003)</t>
+          <t>-0.551 (P = 0.000)</t>
         </is>
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr">
         <is>
-          <t>-0.437 (P = 0.240)</t>
+          <t>-0.375 (P = 0.076)</t>
         </is>
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>-0.862 (P = 0.011)</t>
+          <t>-0.801 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -21859,83 +21859,83 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6.908</t>
+          <t>6.971</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>7.509</t>
+          <t>7.533</t>
         </is>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.750</t>
+          <t>6.758</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>6.629</t>
+          <t>6.609</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>6.723</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
-          <t>6.713</t>
+          <t>6.748</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>7.076</t>
+          <t>7.127</t>
         </is>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
-          <t>6.458</t>
+          <t>6.521</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>6.326</t>
+          <t>6.391</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.892)</t>
+          <t>-0.292 (P = 0.000)</t>
         </is>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr">
         <is>
-          <t>-0.195 (P = 0.383)</t>
+          <t>-0.223 (P = 0.140)</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.021)</t>
+          <t>-0.407 (P = 0.002)</t>
         </is>
       </c>
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr">
         <is>
-          <t>-0.292 (P = 0.381)</t>
+          <t>-0.236 (P = 0.195)</t>
         </is>
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.308)</t>
+          <t>-0.219 (P = 0.289)</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5.826</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -22420,28 +22420,28 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.448</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>6.762</t>
+          <t>6.725</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.303</t>
+          <t>5.222</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>5.670</t>
+          <t>5.609</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.798</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -22451,28 +22451,28 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>5.842</t>
+          <t>5.877</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>6.404</t>
+          <t>6.392</t>
         </is>
       </c>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>4.921</t>
+          <t>4.982</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>5.264</t>
+          <t>5.337</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>-0.061 (P = 0.624)</t>
+          <t>-0.379 (P = 0.000)</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -22482,23 +22482,23 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>-0.595 (P = 0.039)</t>
+          <t>-0.571 (P = 0.000)</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>-0.358 (P = 0.157)</t>
+          <t>-0.332 (P = 0.011)</t>
         </is>
       </c>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr">
         <is>
-          <t>-0.382 (P = 0.345)</t>
+          <t>-0.240 (P = 0.219)</t>
         </is>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>-0.406 (P = 0.282)</t>
+          <t>-0.272 (P = 0.100)</t>
         </is>
       </c>
     </row>
@@ -22973,7 +22973,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5.790</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -22983,28 +22983,28 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>6.118</t>
+          <t>6.141</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>6.147</t>
+          <t>6.158</t>
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>5.084</t>
+          <t>5.081</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>5.433</t>
+          <t>5.466</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -23014,7 +23014,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>5.830</t>
+          <t>5.863</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -23025,17 +23025,17 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>4.807</t>
+          <t>4.866</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>5.191</t>
+          <t>5.178</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.130)</t>
+          <t>-0.199 (P = 0.040)</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
@@ -23045,23 +23045,23 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>-0.288 (P = 0.278)</t>
+          <t>-0.278 (P = 0.119)</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>-0.065 (P = 0.795)</t>
+          <t>-0.076 (P = 0.618)</t>
         </is>
       </c>
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.458)</t>
+          <t>-0.215 (P = 0.404)</t>
         </is>
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>-0.241 (P = 0.485)</t>
+          <t>-0.287 (P = 0.211)</t>
         </is>
       </c>
     </row>
@@ -23536,7 +23536,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>2.591</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -23546,28 +23546,28 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2.440</t>
+          <t>2.402</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>3.294</t>
+          <t>3.293</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.971</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2.097</t>
+          <t>2.088</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>2.181</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -23577,28 +23577,28 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2.155</t>
+          <t>2.116</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>2.725</t>
+          <t>2.689</t>
         </is>
       </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>1.623</t>
+          <t>1.529</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>1.725</t>
+          <t>1.624</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.468 (P = 0.000)</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
@@ -23608,23 +23608,23 @@
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>-0.285 (P = 0.227)</t>
+          <t>-0.287 (P = 0.023)</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>-0.569 (P = 0.024)</t>
+          <t>-0.604 (P = 0.000)</t>
         </is>
       </c>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr">
         <is>
-          <t>-0.377 (P = 0.174)</t>
+          <t>-0.442 (P = 0.027)</t>
         </is>
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>-0.372 (P = 0.137)</t>
+          <t>-0.465 (P = 0.004)</t>
         </is>
       </c>
     </row>
@@ -24099,7 +24099,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7.376</t>
+          <t>7.623</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -24109,28 +24109,28 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>7.502</t>
+          <t>7.534</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>8.029</t>
+          <t>8.063</t>
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.138</t>
+          <t>7.263</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>7.079</t>
+          <t>7.224</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>7.392</t>
+          <t>7.473</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -24140,28 +24140,28 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>7.411</t>
+          <t>7.466</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>7.784</t>
+          <t>7.872</t>
         </is>
       </c>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>7.091</t>
+          <t>7.234</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>6.929</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.869)</t>
+          <t>-0.150 (P = 0.041)</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -24171,23 +24171,23 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>-0.091 (P = 0.689)</t>
+          <t>-0.069 (P = 0.607)</t>
         </is>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>-0.245 (P = 0.193)</t>
+          <t>-0.191 (P = 0.122)</t>
         </is>
       </c>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr">
         <is>
-          <t>-0.047 (P = 0.889)</t>
+          <t>-0.030 (P = 0.863)</t>
         </is>
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>-0.178 (P = 0.547)</t>
+          <t>-0.294 (P = 0.103)</t>
         </is>
       </c>
     </row>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>6.903</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -24672,28 +24672,28 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>6.934</t>
+          <t>6.904</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>7.365</t>
+          <t>7.410</t>
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>6.553</t>
+          <t>6.708</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>6.510</t>
+          <t>6.617</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -24703,28 +24703,28 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>6.552</t>
+          <t>6.676</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>7.172</t>
+          <t>7.235</t>
         </is>
       </c>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>6.598</t>
+          <t>6.657</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>6.178</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.058)</t>
+          <t>-0.196 (P = 0.042)</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
@@ -24734,23 +24734,23 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>-0.382 (P = 0.093)</t>
+          <t>-0.228 (P = 0.167)</t>
         </is>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>-0.193 (P = 0.330)</t>
+          <t>-0.175 (P = 0.251)</t>
         </is>
       </c>
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr">
         <is>
-          <t>0.045 (P = 0.896)</t>
+          <t>-0.051 (P = 0.854)</t>
         </is>
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>-0.332 (P = 0.271)</t>
+          <t>-0.333 (P = 0.156)</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5.446</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -25235,28 +25235,28 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5.521</t>
+          <t>5.588</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>6.374</t>
+          <t>6.422</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>4.742</t>
+          <t>4.963</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>5.385</t>
+          <t>5.446</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.747</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -25266,28 +25266,28 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>5.847</t>
+          <t>5.804</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>5.909</t>
+          <t>6.130</t>
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>5.280</t>
+          <t>5.284</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>5.491</t>
+          <t>5.256</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.041)</t>
+          <t>-0.017 (P = 0.875)</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
@@ -25297,23 +25297,23 @@
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>0.326 (P = 0.299)</t>
+          <t>0.216 (P = 0.280)</t>
         </is>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>-0.465 (P = 0.088)</t>
+          <t>-0.292 (P = 0.065)</t>
         </is>
       </c>
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr">
         <is>
-          <t>0.538 (P = 0.208)</t>
+          <t>0.321 (P = 0.280)</t>
         </is>
       </c>
       <c r="X223" t="inlineStr">
         <is>
-          <t>0.106 (P = 0.795)</t>
+          <t>-0.190 (P = 0.390)</t>
         </is>
       </c>
     </row>
@@ -25788,7 +25788,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.486</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -25798,28 +25798,28 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>5.519</t>
+          <t>5.595</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>6.142</t>
+          <t>6.145</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>4.681</t>
+          <t>4.612</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>4.910</t>
+          <t>4.897</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>5.072</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -25829,28 +25829,28 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>5.079</t>
+          <t>5.056</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>5.642</t>
+          <t>5.675</t>
         </is>
       </c>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>4.344</t>
+          <t>4.444</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>4.478</t>
+          <t>4.494</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.009)</t>
+          <t>-0.415 (P = 0.000)</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -25860,23 +25860,23 @@
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>-0.440 (P = 0.131)</t>
+          <t>-0.540 (P = 0.000)</t>
         </is>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>-0.500 (P = 0.062)</t>
+          <t>-0.470 (P = 0.003)</t>
         </is>
       </c>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr">
         <is>
-          <t>-0.336 (P = 0.400)</t>
+          <t>-0.169 (P = 0.484)</t>
         </is>
       </c>
       <c r="X228" t="inlineStr">
         <is>
-          <t>-0.432 (P = 0.235)</t>
+          <t>-0.402 (P = 0.043)</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.281</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -26361,28 +26361,28 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>6.803</t>
+          <t>6.826</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>7.406</t>
+          <t>7.443</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.542</t>
+          <t>7.546</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>7.347</t>
+          <t>7.313</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>7.338</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -26392,28 +26392,28 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>7.160</t>
+          <t>7.299</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>7.372</t>
+          <t>7.366</t>
         </is>
       </c>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>7.328</t>
+          <t>7.344</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>7.256</t>
+          <t>7.313</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.457)</t>
+          <t>0.057 (P = 0.509)</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
@@ -26423,23 +26423,23 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>0.357 (P = 0.084)</t>
+          <t>0.473 (P = 0.005)</t>
         </is>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>-0.034 (P = 0.851)</t>
+          <t>-0.077 (P = 0.549)</t>
         </is>
       </c>
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="inlineStr">
         <is>
-          <t>-0.214 (P = 0.456)</t>
+          <t>-0.202 (P = 0.357)</t>
         </is>
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>-0.091 (P = 0.695)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -26914,7 +26914,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.161</t>
+          <t>7.388</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -26924,28 +26924,28 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>6.987</t>
+          <t>7.057</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>7.705</t>
+          <t>7.697</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.556</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>6.987</t>
+          <t>7.053</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>7.748</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -26955,28 +26955,28 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>7.686</t>
+          <t>7.741</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>7.799</t>
+          <t>7.868</t>
         </is>
       </c>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.761</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>7.833</t>
+          <t>7.900</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>0.588 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
@@ -26986,23 +26986,23 @@
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.684 (P = 0.000)</t>
         </is>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>0.094 (P = 0.565)</t>
+          <t>0.171 (P = 0.232)</t>
         </is>
       </c>
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr">
         <is>
-          <t>0.137 (P = 0.629)</t>
+          <t>0.204 (P = 0.330)</t>
         </is>
       </c>
       <c r="X238" t="inlineStr">
         <is>
-          <t>0.846 (P = 0.001)</t>
+          <t>0.847 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -27477,83 +27477,83 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.514</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>6.303</t>
+          <t>6.271</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6.815</t>
+          <t>6.823</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>6.219</t>
+          <t>6.323</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>6.347</t>
+          <t>6.402</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
-          <t>6.218</t>
+          <t>6.349</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>6.566</t>
+          <t>6.606</t>
         </is>
       </c>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>5.423</t>
+          <t>5.556</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>5.644</t>
+          <t>5.848</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.001)</t>
+          <t>-0.299 (P = 0.003)</t>
         </is>
       </c>
       <c r="S243" t="inlineStr"/>
       <c r="T243" t="inlineStr">
         <is>
-          <t>-0.085 (P = 0.718)</t>
+          <t>0.078 (P = 0.686)</t>
         </is>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>-0.249 (P = 0.211)</t>
+          <t>-0.216 (P = 0.165)</t>
         </is>
       </c>
       <c r="V243" t="inlineStr"/>
       <c r="W243" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.024)</t>
+          <t>-0.767 (P = 0.004)</t>
         </is>
       </c>
       <c r="X243" t="inlineStr">
         <is>
-          <t>-0.703 (P = 0.013)</t>
+          <t>-0.553 (P = 0.023)</t>
         </is>
       </c>
     </row>
@@ -28028,7 +28028,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.367</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -28038,28 +28038,28 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>5.336</t>
+          <t>5.325</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.167</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.635</t>
+          <t>4.558</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>4.734</t>
+          <t>4.675</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.814</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -28069,28 +28069,28 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>4.836</t>
+          <t>4.772</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>5.617</t>
+          <t>5.696</t>
         </is>
       </c>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr">
         <is>
-          <t>3.935</t>
+          <t>3.929</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>3.971</t>
+          <t>4.032</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>-0.473 (P = 0.000)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
@@ -28100,23 +28100,23 @@
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>-0.500 (P = 0.079)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>-0.583 (P = 0.021)</t>
+          <t>-0.471 (P = 0.002)</t>
         </is>
       </c>
       <c r="V248" t="inlineStr"/>
       <c r="W248" t="inlineStr">
         <is>
-          <t>-0.700 (P = 0.072)</t>
+          <t>-0.628 (P = 0.002)</t>
         </is>
       </c>
       <c r="X248" t="inlineStr">
         <is>
-          <t>-0.763 (P = 0.029)</t>
+          <t>-0.643 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -28590,7 +28590,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -28600,28 +28600,28 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>7.331</t>
+          <t>7.348</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>7.628</t>
+          <t>7.621</t>
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>7.253</t>
+          <t>7.444</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>6.851</t>
+          <t>6.988</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>7.535</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -28631,28 +28631,28 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>7.412</t>
+          <t>7.472</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>7.759</t>
+          <t>7.802</t>
         </is>
       </c>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr">
         <is>
-          <t>7.415</t>
+          <t>7.562</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>6.939</t>
+          <t>7.060</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.000)</t>
+          <t>0.133 (P = 0.065)</t>
         </is>
       </c>
       <c r="S253" t="inlineStr">
@@ -28662,23 +28662,23 @@
       </c>
       <c r="T253" t="inlineStr">
         <is>
-          <t>0.081 (P = 0.669)</t>
+          <t>0.124 (P = 0.339)</t>
         </is>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>0.131 (P = 0.444)</t>
+          <t>0.180 (P = 0.123)</t>
         </is>
       </c>
       <c r="V253" t="inlineStr"/>
       <c r="W253" t="inlineStr">
         <is>
-          <t>0.162 (P = 0.579)</t>
+          <t>0.118 (P = 0.544)</t>
         </is>
       </c>
       <c r="X253" t="inlineStr">
         <is>
-          <t>0.088 (P = 0.728)</t>
+          <t>0.072 (P = 0.661)</t>
         </is>
       </c>
     </row>
@@ -29152,7 +29152,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.723</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -29162,28 +29162,28 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>7.558</t>
+          <t>7.566</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>7.825</t>
+          <t>7.852</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.871</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>7.522</t>
+          <t>7.564</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -29193,28 +29193,28 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>7.641</t>
+          <t>7.702</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>8.230</t>
+          <t>8.249</t>
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>7.891</t>
+          <t>8.039</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>7.595</t>
+          <t>7.674</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>0.698 (P = 0.000)</t>
+          <t>0.232 (P = 0.000)</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
@@ -29224,23 +29224,23 @@
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>0.083 (P = 0.641)</t>
+          <t>0.136 (P = 0.205)</t>
         </is>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>0.405 (P = 0.005)</t>
+          <t>0.397 (P = 0.000)</t>
         </is>
       </c>
       <c r="V258" t="inlineStr"/>
       <c r="W258" t="inlineStr">
         <is>
-          <t>0.105 (P = 0.658)</t>
+          <t>0.169 (P = 0.151)</t>
         </is>
       </c>
       <c r="X258" t="inlineStr">
         <is>
-          <t>0.073 (P = 0.723)</t>
+          <t>0.110 (P = 0.296)</t>
         </is>
       </c>
     </row>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.389</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -29724,28 +29724,28 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.346</t>
+          <t>5.398</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>5.680</t>
+          <t>5.697</t>
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>4.993</t>
+          <t>4.950</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>5.118</t>
+          <t>5.133</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.884</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -29755,28 +29755,28 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>5.961</t>
+          <t>6.109</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>5.917</t>
+          <t>5.994</t>
         </is>
       </c>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>5.506</t>
+          <t>5.427</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.000)</t>
+          <t>0.496 (P = 0.000)</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
@@ -29786,23 +29786,23 @@
       </c>
       <c r="T263" t="inlineStr">
         <is>
-          <t>0.615 (P = 0.002)</t>
+          <t>0.710 (P = 0.000)</t>
         </is>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>0.237 (P = 0.225)</t>
+          <t>0.297 (P = 0.058)</t>
         </is>
       </c>
       <c r="V263" t="inlineStr"/>
       <c r="W263" t="inlineStr">
         <is>
-          <t>0.673 (P = 0.023)</t>
+          <t>0.813 (P = 0.003)</t>
         </is>
       </c>
       <c r="X263" t="inlineStr">
         <is>
-          <t>0.388 (P = 0.120)</t>
+          <t>0.293 (P = 0.170)</t>
         </is>
       </c>
     </row>
@@ -30276,7 +30276,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>6.506</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -30286,28 +30286,28 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>6.254</t>
+          <t>6.256</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>6.464</t>
+          <t>6.477</t>
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>6.547</t>
+          <t>6.567</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>6.223</t>
+          <t>6.249</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -30317,28 +30317,28 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>6.755</t>
+          <t>6.759</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>7.045</t>
+          <t>7.029</t>
         </is>
       </c>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>6.813</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>6.925</t>
+          <t>6.932</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.000)</t>
+          <t>0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
@@ -30348,23 +30348,23 @@
       </c>
       <c r="T268" t="inlineStr">
         <is>
-          <t>0.501 (P = 0.011)</t>
+          <t>0.504 (P = 0.001)</t>
         </is>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>0.581 (P = 0.002)</t>
+          <t>0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="V268" t="inlineStr"/>
       <c r="W268" t="inlineStr">
         <is>
-          <t>0.281 (P = 0.326)</t>
+          <t>0.246 (P = 0.177)</t>
         </is>
       </c>
       <c r="X268" t="inlineStr">
         <is>
-          <t>0.701 (P = 0.004)</t>
+          <t>0.684 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -30839,7 +30839,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -30849,28 +30849,28 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>3.871</t>
+          <t>3.823</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>4.706</t>
+          <t>4.719</t>
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>2.614</t>
+          <t>2.622</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>2.821</t>
+          <t>2.774</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.570</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -30880,28 +30880,28 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>3.790</t>
+          <t>3.859</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>4.158</t>
+          <t>4.260</t>
         </is>
       </c>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2.651</t>
+          <t>2.662</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>2.767</t>
+          <t>2.684</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.493)</t>
+          <t>-0.171 (P = 0.107)</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
@@ -30911,23 +30911,23 @@
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.788)</t>
+          <t>0.035 (P = 0.882)</t>
         </is>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>-0.549 (P = 0.050)</t>
+          <t>-0.458 (P = 0.006)</t>
         </is>
       </c>
       <c r="V273" t="inlineStr"/>
       <c r="W273" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.918)</t>
+          <t>0.041 (P = 0.862)</t>
         </is>
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>-0.053 (P = 0.872)</t>
+          <t>-0.090 (P = 0.696)</t>
         </is>
       </c>
     </row>
@@ -31402,7 +31402,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5.936</t>
+          <t>5.856</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -31412,28 +31412,28 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>5.678</t>
+          <t>5.702</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>5.910</t>
+          <t>5.879</t>
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>5.947</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>5.771</t>
+          <t>5.767</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -31443,28 +31443,28 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>5.819</t>
+          <t>5.827</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>6.322</t>
+          <t>6.380</t>
         </is>
       </c>
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.373</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>6.045</t>
+          <t>6.189</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.147)</t>
+          <t>0.346 (P = 0.004)</t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
@@ -31474,23 +31474,23 @@
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>0.141 (P = 0.597)</t>
+          <t>0.124 (P = 0.595)</t>
         </is>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>0.412 (P = 0.084)</t>
+          <t>0.502 (P = 0.007)</t>
         </is>
       </c>
       <c r="V278" t="inlineStr"/>
       <c r="W278" t="inlineStr">
         <is>
-          <t>0.148 (P = 0.695)</t>
+          <t>0.267 (P = 0.391)</t>
         </is>
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.400)</t>
+          <t>0.421 (P = 0.147)</t>
         </is>
       </c>
     </row>
@@ -31965,83 +31965,83 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7.273</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>7.575</t>
+          <t>7.662</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>7.475</t>
+          <t>7.497</t>
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>7.773</t>
+          <t>7.842</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>7.210</t>
+          <t>7.275</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.856</t>
         </is>
       </c>
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr">
         <is>
-          <t>7.684</t>
+          <t>7.894</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>7.567</t>
+          <t>7.682</t>
         </is>
       </c>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr">
         <is>
-          <t>7.824</t>
+          <t>8.055</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>7.621</t>
+          <t>7.951</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.000)</t>
+          <t>0.290 (P = 0.003)</t>
         </is>
       </c>
       <c r="S283" t="inlineStr"/>
       <c r="T283" t="inlineStr">
         <is>
-          <t>0.109 (P = 0.618)</t>
+          <t>0.231 (P = 0.170)</t>
         </is>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>0.092 (P = 0.652)</t>
+          <t>0.185 (P = 0.212)</t>
         </is>
       </c>
       <c r="V283" t="inlineStr"/>
       <c r="W283" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.880)</t>
+          <t>0.212 (P = 0.434)</t>
         </is>
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>0.411 (P = 0.161)</t>
+          <t>0.676 (P = 0.005)</t>
         </is>
       </c>
     </row>
@@ -32516,7 +32516,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>7.874</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -32526,28 +32526,28 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>7.811</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>7.885</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>8.035</t>
+          <t>8.071</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>7.648</t>
+          <t>7.718</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>8.020</t>
+          <t>8.103</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -32557,28 +32557,28 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>7.882</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>7.937</t>
+          <t>8.015</t>
         </is>
       </c>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>8.215</t>
+          <t>8.286</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>8.193</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.000)</t>
+          <t>0.229 (P = 0.001)</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
@@ -32588,23 +32588,23 @@
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>0.071 (P = 0.710)</t>
+          <t>0.173 (P = 0.205)</t>
         </is>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>0.077 (P = 0.656)</t>
+          <t>0.130 (P = 0.270)</t>
         </is>
       </c>
       <c r="V288" t="inlineStr"/>
       <c r="W288" t="inlineStr">
         <is>
-          <t>0.180 (P = 0.479)</t>
+          <t>0.214 (P = 0.220)</t>
         </is>
       </c>
       <c r="X288" t="inlineStr">
         <is>
-          <t>0.545 (P = 0.028)</t>
+          <t>0.523 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -33079,7 +33079,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -33089,28 +33089,28 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>6.930</t>
+          <t>6.967</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>7.107</t>
+          <t>7.120</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>7.312</t>
+          <t>7.347</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>6.989</t>
+          <t>7.119</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>7.196</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -33120,28 +33120,28 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>6.989</t>
+          <t>7.114</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>7.348</t>
+          <t>7.410</t>
         </is>
       </c>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>7.147</t>
+          <t>7.253</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>7.243</t>
+          <t>7.315</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>0.565 (P = 0.000)</t>
+          <t>0.162 (P = 0.017)</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -33151,23 +33151,23 @@
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>0.059 (P = 0.829)</t>
+          <t>0.146 (P = 0.277)</t>
         </is>
       </c>
       <c r="U293" t="inlineStr">
         <is>
-          <t>0.241 (P = 0.319)</t>
+          <t>0.289 (P = 0.014)</t>
         </is>
       </c>
       <c r="V293" t="inlineStr"/>
       <c r="W293" t="inlineStr">
         <is>
-          <t>-0.166 (P = 0.655)</t>
+          <t>-0.094 (P = 0.543)</t>
         </is>
       </c>
       <c r="X293" t="inlineStr">
         <is>
-          <t>0.254 (P = 0.446)</t>
+          <t>0.196 (P = 0.180)</t>
         </is>
       </c>
     </row>
@@ -33642,7 +33642,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -33652,28 +33652,28 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>6.956</t>
+          <t>6.959</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>6.982</t>
+          <t>7.025</t>
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>6.781</t>
+          <t>6.756</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>6.848</t>
+          <t>6.893</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>6.889</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -33683,28 +33683,28 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>6.955</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>6.965</t>
+          <t>7.006</t>
         </is>
       </c>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>6.919</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>6.397</t>
+          <t>6.497</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.001)</t>
+          <t>-0.049 (P = 0.493)</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
@@ -33714,23 +33714,23 @@
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>-0.062 (P = 0.818)</t>
+          <t>-0.004 (P = 0.977)</t>
         </is>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>-0.017 (P = 0.946)</t>
+          <t>-0.018 (P = 0.877)</t>
         </is>
       </c>
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr">
         <is>
-          <t>0.048 (P = 0.902)</t>
+          <t>0.163 (P = 0.318)</t>
         </is>
       </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>-0.451 (P = 0.190)</t>
+          <t>-0.396 (P = 0.020)</t>
         </is>
       </c>
     </row>
@@ -34205,83 +34205,83 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>6.078</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>6.465</t>
+          <t>6.507</t>
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>6.289</t>
+          <t>6.336</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>5.872</t>
+          <t>5.978</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.664</t>
         </is>
       </c>
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr">
         <is>
-          <t>5.445</t>
+          <t>5.544</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>5.912</t>
+          <t>6.007</t>
         </is>
       </c>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>5.281</t>
+          <t>5.562</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>4.982</t>
+          <t>5.199</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.005)</t>
+          <t>-0.614 (P = 0.000)</t>
         </is>
       </c>
       <c r="S303" t="inlineStr"/>
       <c r="T303" t="inlineStr">
         <is>
-          <t>-0.633 (P = 0.021)</t>
+          <t>-0.562 (P = 0.001)</t>
         </is>
       </c>
       <c r="U303" t="inlineStr">
         <is>
-          <t>-0.553 (P = 0.024)</t>
+          <t>-0.500 (P = 0.001)</t>
         </is>
       </c>
       <c r="V303" t="inlineStr"/>
       <c r="W303" t="inlineStr">
         <is>
-          <t>-1.009 (P = 0.009)</t>
+          <t>-0.774 (P = 0.002)</t>
         </is>
       </c>
       <c r="X303" t="inlineStr">
         <is>
-          <t>-0.891 (P = 0.008)</t>
+          <t>-0.779 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -34756,83 +34756,83 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5.702</t>
+          <t>5.720</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>5.716</t>
+          <t>5.682</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>6.294</t>
+          <t>6.318</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>5.091</t>
+          <t>4.918</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>5.325</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr">
         <is>
-          <t>5.059</t>
+          <t>5.127</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>5.442</t>
+          <t>5.916</t>
         </is>
       </c>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>4.159</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.471</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.000)</t>
+          <t>-0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="S308" t="inlineStr"/>
       <c r="T308" t="inlineStr">
         <is>
-          <t>-0.657 (P = 0.016)</t>
+          <t>-0.554 (P = 0.008)</t>
         </is>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>-0.852 (P = 0.001)</t>
+          <t>-0.402 (P = 0.022)</t>
         </is>
       </c>
       <c r="V308" t="inlineStr"/>
       <c r="W308" t="inlineStr">
         <is>
-          <t>-0.932 (P = 0.027)</t>
+          <t>-0.418 (P = 0.209)</t>
         </is>
       </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>-0.987 (P = 0.005)</t>
+          <t>-0.779 (P = 0.010)</t>
         </is>
       </c>
     </row>
@@ -35307,7 +35307,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.038</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -35317,28 +35317,28 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>5.979</t>
+          <t>6.018</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>6.526</t>
+          <t>6.536</t>
         </is>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>5.634</t>
+          <t>5.649</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>5.935</t>
+          <t>5.952</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>5.392</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -35348,28 +35348,28 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>5.456</t>
+          <t>5.543</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>5.761</t>
+          <t>5.895</t>
         </is>
       </c>
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>5.041</t>
+          <t>5.152</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>4.959</t>
+          <t>4.972</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>-0.646 (P = 0.000)</t>
+          <t>-0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
@@ -35379,23 +35379,23 @@
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>-0.523 (P = 0.029)</t>
+          <t>-0.475 (P = 0.023)</t>
         </is>
       </c>
       <c r="U313" t="inlineStr">
         <is>
-          <t>-0.764 (P = 0.001)</t>
+          <t>-0.641 (P = 0.000)</t>
         </is>
       </c>
       <c r="V313" t="inlineStr"/>
       <c r="W313" t="inlineStr">
         <is>
-          <t>-0.593 (P = 0.104)</t>
+          <t>-0.497 (P = 0.067)</t>
         </is>
       </c>
       <c r="X313" t="inlineStr">
         <is>
-          <t>-0.976 (P = 0.002)</t>
+          <t>-0.979 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>4.972</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -35880,28 +35880,28 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>4.886</t>
+          <t>4.980</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>5.567</t>
+          <t>5.579</t>
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>4.927</t>
+          <t>4.883</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>4.911</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>5.459</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -35911,28 +35911,28 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>5.278</t>
+          <t>5.286</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>5.883</t>
+          <t>5.910</t>
         </is>
       </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr">
         <is>
-          <t>5.154</t>
+          <t>5.095</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>5.216</t>
+          <t>5.226</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>0.487 (P = 0.000)</t>
+          <t>0.306 (P = 0.003)</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -35942,23 +35942,23 @@
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.169)</t>
+          <t>0.305 (P = 0.095)</t>
         </is>
       </c>
       <c r="U318" t="inlineStr">
         <is>
-          <t>0.315 (P = 0.230)</t>
+          <t>0.331 (P = 0.055)</t>
         </is>
       </c>
       <c r="V318" t="inlineStr"/>
       <c r="W318" t="inlineStr">
         <is>
-          <t>0.227 (P = 0.579)</t>
+          <t>0.212 (P = 0.427)</t>
         </is>
       </c>
       <c r="X318" t="inlineStr">
         <is>
-          <t>0.309 (P = 0.394)</t>
+          <t>0.315 (P = 0.212)</t>
         </is>
       </c>
     </row>
@@ -36433,83 +36433,83 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>6.369</t>
+          <t>6.862</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>6.633</t>
+          <t>6.689</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>7.174</t>
+          <t>7.146</t>
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>6.619</t>
+          <t>6.898</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>6.473</t>
+          <t>6.507</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>6.422</t>
+          <t>6.576</t>
         </is>
       </c>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr">
         <is>
-          <t>6.362</t>
+          <t>6.511</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>6.698</t>
+          <t>6.809</t>
         </is>
       </c>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="inlineStr">
         <is>
-          <t>6.491</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>5.881</t>
+          <t>5.993</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.602)</t>
+          <t>-0.286 (P = 0.002)</t>
         </is>
       </c>
       <c r="S323" t="inlineStr"/>
       <c r="T323" t="inlineStr">
         <is>
-          <t>-0.270 (P = 0.267)</t>
+          <t>-0.178 (P = 0.311)</t>
         </is>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>-0.476 (P = 0.019)</t>
+          <t>-0.337 (P = 0.016)</t>
         </is>
       </c>
       <c r="V323" t="inlineStr"/>
       <c r="W323" t="inlineStr">
         <is>
-          <t>-0.128 (P = 0.705)</t>
+          <t>-0.109 (P = 0.624)</t>
         </is>
       </c>
       <c r="X323" t="inlineStr">
         <is>
-          <t>-0.592 (P = 0.054)</t>
+          <t>-0.513 (P = 0.023)</t>
         </is>
       </c>
     </row>
@@ -36984,83 +36984,83 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.534</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>4.223</t>
+          <t>4.166</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>5.324</t>
+          <t>5.243</t>
         </is>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>3.784</t>
+          <t>3.851</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>4.351</t>
+          <t>4.366</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.549</t>
         </is>
       </c>
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="inlineStr">
         <is>
-          <t>4.308</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>5.025</t>
+          <t>5.154</t>
         </is>
       </c>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>4.278</t>
+          <t>4.223</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>4.122</t>
+          <t>4.097</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.155)</t>
+          <t>0.016 (P = 0.871)</t>
         </is>
       </c>
       <c r="S328" t="inlineStr"/>
       <c r="T328" t="inlineStr">
         <is>
-          <t>0.084 (P = 0.787)</t>
+          <t>0.106 (P = 0.595)</t>
         </is>
       </c>
       <c r="U328" t="inlineStr">
         <is>
-          <t>-0.299 (P = 0.293)</t>
+          <t>-0.089 (P = 0.526)</t>
         </is>
       </c>
       <c r="V328" t="inlineStr"/>
       <c r="W328" t="inlineStr">
         <is>
-          <t>0.494 (P = 0.246)</t>
+          <t>0.372 (P = 0.115)</t>
         </is>
       </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>-0.229 (P = 0.545)</t>
+          <t>-0.269 (P = 0.251)</t>
         </is>
       </c>
     </row>
@@ -37535,7 +37535,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>5.135</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -37545,28 +37545,28 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>5.410</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>5.836</t>
+          <t>5.919</t>
         </is>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>5.295</t>
+          <t>5.284</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>5.276</t>
+          <t>5.288</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>5.809</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -37576,28 +37576,28 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>5.886</t>
+          <t>5.770</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>6.163</t>
+          <t>6.158</t>
         </is>
       </c>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>5.533</t>
+          <t>5.475</t>
         </is>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>5.320</t>
+          <t>5.259</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.197 (P = 0.079)</t>
         </is>
       </c>
       <c r="S333" t="inlineStr">
@@ -37607,23 +37607,23 @@
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>0.476 (P = 0.138)</t>
+          <t>0.296 (P = 0.202)</t>
         </is>
       </c>
       <c r="U333" t="inlineStr">
         <is>
-          <t>0.327 (P = 0.253)</t>
+          <t>0.239 (P = 0.144)</t>
         </is>
       </c>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="inlineStr">
         <is>
-          <t>0.237 (P = 0.593)</t>
+          <t>0.191 (P = 0.499)</t>
         </is>
       </c>
       <c r="X333" t="inlineStr">
         <is>
-          <t>0.044 (P = 0.914)</t>
+          <t>-0.029 (P = 0.914)</t>
         </is>
       </c>
     </row>
@@ -38098,83 +38098,83 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>5.802</t>
+          <t>5.569</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>5.608</t>
+          <t>5.543</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>5.780</t>
+          <t>5.825</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>5.441</t>
+          <t>5.430</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>5.270</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>5.165</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr">
         <is>
-          <t>5.108</t>
+          <t>4.978</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>5.596</t>
+          <t>5.737</t>
         </is>
       </c>
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>4.806</t>
+          <t>4.617</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>4.767</t>
+          <t>4.647</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.427 (P = 0.000)</t>
         </is>
       </c>
       <c r="S338" t="inlineStr"/>
       <c r="T338" t="inlineStr">
         <is>
-          <t>-0.501 (P = 0.062)</t>
+          <t>-0.565 (P = 0.011)</t>
         </is>
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>-0.185 (P = 0.459)</t>
+          <t>-0.088 (P = 0.618)</t>
         </is>
       </c>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr">
         <is>
-          <t>-0.634 (P = 0.125)</t>
+          <t>-0.812 (P = 0.019)</t>
         </is>
       </c>
       <c r="X338" t="inlineStr">
         <is>
-          <t>-0.503 (P = 0.145)</t>
+          <t>-0.564 (P = 0.080)</t>
         </is>
       </c>
     </row>
@@ -38649,7 +38649,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -38659,28 +38659,28 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>6.125</t>
+          <t>6.159</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6.545</t>
+          <t>6.534</t>
         </is>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.259</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>6.162</t>
+          <t>6.122</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.317</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -38690,28 +38690,28 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>6.196</t>
+          <t>6.269</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>6.463</t>
+          <t>6.481</t>
         </is>
       </c>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr">
         <is>
-          <t>6.278</t>
+          <t>6.356</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>6.060</t>
+          <t>5.993</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.138)</t>
+          <t>0.008 (P = 0.944)</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
@@ -38721,23 +38721,23 @@
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>0.071 (P = 0.764)</t>
+          <t>0.111 (P = 0.581)</t>
         </is>
       </c>
       <c r="U343" t="inlineStr">
         <is>
-          <t>-0.081 (P = 0.710)</t>
+          <t>-0.053 (P = 0.771)</t>
         </is>
       </c>
       <c r="V343" t="inlineStr"/>
       <c r="W343" t="inlineStr">
         <is>
-          <t>0.028 (P = 0.941)</t>
+          <t>0.096 (P = 0.745)</t>
         </is>
       </c>
       <c r="X343" t="inlineStr">
         <is>
-          <t>-0.102 (P = 0.741)</t>
+          <t>-0.129 (P = 0.627)</t>
         </is>
       </c>
     </row>
@@ -39212,7 +39212,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>6.204</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -39222,28 +39222,28 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>6.411</t>
+          <t>6.406</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>6.585</t>
+          <t>6.591</t>
         </is>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>6.432</t>
+          <t>6.364</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>5.868</t>
+          <t>5.870</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -39253,28 +39253,28 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>6.094</t>
+          <t>6.041</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>6.457</t>
+          <t>6.599</t>
         </is>
       </c>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>5.317</t>
+          <t>5.424</t>
         </is>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>5.773</t>
+          <t>5.836</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.098)</t>
+          <t>-0.264 (P = 0.019)</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
@@ -39284,23 +39284,23 @@
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>-0.317 (P = 0.185)</t>
+          <t>-0.365 (P = 0.082)</t>
         </is>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>-0.128 (P = 0.537)</t>
+          <t>0.007 (P = 0.967)</t>
         </is>
       </c>
       <c r="V348" t="inlineStr"/>
       <c r="W348" t="inlineStr">
         <is>
-          <t>-1.115 (P = 0.002)</t>
+          <t>-0.939 (P = 0.005)</t>
         </is>
       </c>
       <c r="X348" t="inlineStr">
         <is>
-          <t>-0.094 (P = 0.764)</t>
+          <t>-0.034 (P = 0.888)</t>
         </is>
       </c>
     </row>
@@ -39775,83 +39775,83 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>5.095</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>5.179</t>
+          <t>5.123</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>5.752</t>
+          <t>5.780</t>
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>4.389</t>
+          <t>4.269</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>4.617</t>
+          <t>4.672</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>5.115</t>
+          <t>5.137</t>
         </is>
       </c>
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="inlineStr">
         <is>
-          <t>5.009</t>
+          <t>4.918</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>5.630</t>
+          <t>5.761</t>
         </is>
       </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>4.510</t>
+          <t>4.445</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>4.851</t>
+          <t>4.812</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.858)</t>
+          <t>-0.001 (P = 0.990)</t>
         </is>
       </c>
       <c r="S353" t="inlineStr"/>
       <c r="T353" t="inlineStr">
         <is>
-          <t>-0.170 (P = 0.531)</t>
+          <t>-0.205 (P = 0.357)</t>
         </is>
       </c>
       <c r="U353" t="inlineStr">
         <is>
-          <t>-0.121 (P = 0.618)</t>
+          <t>-0.019 (P = 0.917)</t>
         </is>
       </c>
       <c r="V353" t="inlineStr"/>
       <c r="W353" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.762)</t>
+          <t>0.176 (P = 0.604)</t>
         </is>
       </c>
       <c r="X353" t="inlineStr">
         <is>
-          <t>0.234 (P = 0.470)</t>
+          <t>0.141 (P = 0.542)</t>
         </is>
       </c>
     </row>
@@ -40326,7 +40326,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>4.896</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -40336,28 +40336,28 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>4.758</t>
+          <t>4.766</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.266</t>
+          <t>5.275</t>
         </is>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>4.669</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>4.604</t>
+          <t>4.540</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>4.593</t>
+          <t>4.583</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -40367,28 +40367,28 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>4.542</t>
+          <t>4.505</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>5.139</t>
+          <t>5.157</t>
         </is>
       </c>
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr">
         <is>
-          <t>4.072</t>
+          <t>3.877</t>
         </is>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>4.116</t>
+          <t>4.200</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.011)</t>
+          <t>-0.316 (P = 0.009)</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -40398,23 +40398,23 @@
       </c>
       <c r="T358" t="inlineStr">
         <is>
-          <t>-0.216 (P = 0.451)</t>
+          <t>-0.261 (P = 0.246)</t>
         </is>
       </c>
       <c r="U358" t="inlineStr">
         <is>
-          <t>-0.127 (P = 0.626)</t>
+          <t>-0.118 (P = 0.514)</t>
         </is>
       </c>
       <c r="V358" t="inlineStr"/>
       <c r="W358" t="inlineStr">
         <is>
-          <t>-0.597 (P = 0.132)</t>
+          <t>-0.781 (P = 0.019)</t>
         </is>
       </c>
       <c r="X358" t="inlineStr">
         <is>
-          <t>-0.488 (P = 0.156)</t>
+          <t>-0.340 (P = 0.271)</t>
         </is>
       </c>
     </row>
@@ -40889,7 +40889,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -40899,28 +40899,28 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>7.246</t>
+          <t>7.270</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>7.557</t>
+          <t>7.574</t>
         </is>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>7.132</t>
+          <t>7.162</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>7.075</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>7.763</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -40930,28 +40930,28 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>7.635</t>
+          <t>7.722</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>7.876</t>
+          <t>7.896</t>
         </is>
       </c>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr">
         <is>
-          <t>7.625</t>
+          <t>7.775</t>
         </is>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>7.370</t>
+          <t>7.538</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -40961,23 +40961,23 @@
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>0.389 (P = 0.056)</t>
+          <t>0.452 (P = 0.004)</t>
         </is>
       </c>
       <c r="U363" t="inlineStr">
         <is>
-          <t>0.319 (P = 0.070)</t>
+          <t>0.322 (P = 0.021)</t>
         </is>
       </c>
       <c r="V363" t="inlineStr"/>
       <c r="W363" t="inlineStr">
         <is>
-          <t>0.493 (P = 0.108)</t>
+          <t>0.613 (P = 0.007)</t>
         </is>
       </c>
       <c r="X363" t="inlineStr">
         <is>
-          <t>0.294 (P = 0.289)</t>
+          <t>0.467 (P = 0.018)</t>
         </is>
       </c>
     </row>
@@ -41452,7 +41452,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7.881</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -41462,28 +41462,28 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>8.284</t>
+          <t>8.259</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.122</t>
         </is>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>8.213</t>
+          <t>8.291</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>8.212</t>
+          <t>8.194</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>8.211</t>
+          <t>8.220</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -41493,28 +41493,28 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>8.290</t>
+          <t>8.296</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>8.174</t>
+          <t>8.181</t>
         </is>
       </c>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr">
         <is>
-          <t>8.279</t>
+          <t>8.326</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>8.090</t>
+          <t>8.075</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.000)</t>
+          <t>0.015 (P = 0.811)</t>
         </is>
       </c>
       <c r="S368" t="inlineStr">
@@ -41524,23 +41524,23 @@
       </c>
       <c r="T368" t="inlineStr">
         <is>
-          <t>0.006 (P = 0.975)</t>
+          <t>0.036 (P = 0.733)</t>
         </is>
       </c>
       <c r="U368" t="inlineStr">
         <is>
-          <t>0.064 (P = 0.750)</t>
+          <t>0.059 (P = 0.600)</t>
         </is>
       </c>
       <c r="V368" t="inlineStr"/>
       <c r="W368" t="inlineStr">
         <is>
-          <t>0.065 (P = 0.826)</t>
+          <t>0.034 (P = 0.834)</t>
         </is>
       </c>
       <c r="X368" t="inlineStr">
         <is>
-          <t>-0.121 (P = 0.659)</t>
+          <t>-0.118 (P = 0.397)</t>
         </is>
       </c>
     </row>
@@ -42015,7 +42015,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7.841</t>
+          <t>8.178</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -42025,28 +42025,28 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>8.083</t>
+          <t>8.091</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>8.466</t>
+          <t>8.486</t>
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>7.825</t>
+          <t>7.873</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>7.984</t>
+          <t>8.011</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -42056,28 +42056,28 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>8.266</t>
+          <t>8.254</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>8.366</t>
+          <t>8.387</t>
         </is>
       </c>
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr">
         <is>
-          <t>7.984</t>
+          <t>7.978</t>
         </is>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>8.047</t>
+          <t>8.053</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.037 (P = 0.589)</t>
         </is>
       </c>
       <c r="S373" t="inlineStr">
@@ -42087,23 +42087,23 @@
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.363)</t>
+          <t>0.163 (P = 0.164)</t>
         </is>
       </c>
       <c r="U373" t="inlineStr">
         <is>
-          <t>-0.100 (P = 0.576)</t>
+          <t>-0.099 (P = 0.391)</t>
         </is>
       </c>
       <c r="V373" t="inlineStr"/>
       <c r="W373" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.595)</t>
+          <t>0.105 (P = 0.581)</t>
         </is>
       </c>
       <c r="X373" t="inlineStr">
         <is>
-          <t>0.063 (P = 0.801)</t>
+          <t>0.043 (P = 0.779)</t>
         </is>
       </c>
     </row>
@@ -42578,7 +42578,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8.059</t>
+          <t>8.324</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -42588,28 +42588,28 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>8.155</t>
+          <t>8.157</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>8.362</t>
+          <t>8.430</t>
         </is>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>8.385</t>
+          <t>8.386</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.301</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>8.334</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -42619,28 +42619,28 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>8.294</t>
+          <t>8.310</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>8.411</t>
+          <t>8.427</t>
         </is>
       </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr">
         <is>
-          <t>8.432</t>
+          <t>8.455</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>8.143</t>
+          <t>8.167</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.001)</t>
+          <t>0.028 (P = 0.687)</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -42650,23 +42650,23 @@
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>0.139 (P = 0.472)</t>
+          <t>0.153 (P = 0.215)</t>
         </is>
       </c>
       <c r="U378" t="inlineStr">
         <is>
-          <t>0.048 (P = 0.788)</t>
+          <t>-0.003 (P = 0.982)</t>
         </is>
       </c>
       <c r="V378" t="inlineStr"/>
       <c r="W378" t="inlineStr">
         <is>
-          <t>0.047 (P = 0.861)</t>
+          <t>0.068 (P = 0.701)</t>
         </is>
       </c>
       <c r="X378" t="inlineStr">
         <is>
-          <t>-0.160 (P = 0.502)</t>
+          <t>-0.134 (P = 0.367)</t>
         </is>
       </c>
     </row>
@@ -43141,7 +43141,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>9.181</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -43156,54 +43156,54 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>9.117</t>
+          <t>9.112</t>
         </is>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>9.351</t>
+          <t>9.343</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>9.164</t>
+          <t>9.155</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
         <is>
+          <t>9.156</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>9.109</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
           <t>9.152</t>
-        </is>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>10.000</t>
-        </is>
-      </c>
-      <c r="M383" t="inlineStr">
-        <is>
-          <t>9.103</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>9.154</t>
         </is>
       </c>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>
-          <t>9.414</t>
+          <t>9.459</t>
         </is>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>8.958</t>
+          <t>8.947</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.001)</t>
+          <t>-0.025 (P = 0.682)</t>
         </is>
       </c>
       <c r="S383" t="inlineStr">
@@ -43213,23 +43213,23 @@
       </c>
       <c r="T383" t="inlineStr">
         <is>
-          <t>-0.079 (P = 0.541)</t>
+          <t>-0.073 (P = 0.400)</t>
         </is>
       </c>
       <c r="U383" t="inlineStr">
         <is>
-          <t>0.036 (P = 0.786)</t>
+          <t>0.039 (P = 0.741)</t>
         </is>
       </c>
       <c r="V383" t="inlineStr"/>
       <c r="W383" t="inlineStr">
         <is>
-          <t>0.063 (P = 0.700)</t>
+          <t>0.116 (P = 0.423)</t>
         </is>
       </c>
       <c r="X383" t="inlineStr">
         <is>
-          <t>-0.206 (P = 0.238)</t>
+          <t>-0.209 (P = 0.156)</t>
         </is>
       </c>
     </row>
@@ -43704,7 +43704,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -43714,28 +43714,28 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>8.493</t>
+          <t>8.480</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>8.632</t>
+          <t>8.647</t>
         </is>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>8.403</t>
+          <t>8.450</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>8.444</t>
+          <t>8.418</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>8.563</t>
+          <t>8.572</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -43745,28 +43745,28 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>8.693</t>
+          <t>8.711</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>8.631</t>
+          <t>8.633</t>
         </is>
       </c>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>8.299</t>
+          <t>8.300</t>
         </is>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>8.492</t>
+          <t>8.505</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>0.329 (P = 0.000)</t>
+          <t>0.047 (P = 0.469)</t>
         </is>
       </c>
       <c r="S388" t="inlineStr">
@@ -43776,23 +43776,23 @@
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>0.200 (P = 0.278)</t>
+          <t>0.231 (P = 0.048)</t>
         </is>
       </c>
       <c r="U388" t="inlineStr">
         <is>
-          <t>-0.001 (P = 0.997)</t>
+          <t>-0.014 (P = 0.904)</t>
         </is>
       </c>
       <c r="V388" t="inlineStr"/>
       <c r="W388" t="inlineStr">
         <is>
-          <t>-0.104 (P = 0.712)</t>
+          <t>-0.150 (P = 0.333)</t>
         </is>
       </c>
       <c r="X388" t="inlineStr">
         <is>
-          <t>0.048 (P = 0.839)</t>
+          <t>0.087 (P = 0.549)</t>
         </is>
       </c>
     </row>
@@ -44267,7 +44267,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -44277,28 +44277,28 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>8.448</t>
+          <t>8.484</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>8.600</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>8.475</t>
+          <t>8.538</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>8.561</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -44308,28 +44308,28 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>8.673</t>
+          <t>8.668</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>8.639</t>
+          <t>8.658</t>
         </is>
       </c>
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr">
         <is>
-          <t>8.494</t>
+          <t>8.543</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>8.394</t>
+          <t>8.425</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.002)</t>
+          <t>0.051 (P = 0.448)</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
@@ -44339,23 +44339,23 @@
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>0.225 (P = 0.191)</t>
+          <t>0.184 (P = 0.138)</t>
         </is>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>0.039 (P = 0.809)</t>
+          <t>0.060 (P = 0.583)</t>
         </is>
       </c>
       <c r="V393" t="inlineStr"/>
       <c r="W393" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.938)</t>
+          <t>0.006 (P = 0.972)</t>
         </is>
       </c>
       <c r="X393" t="inlineStr">
         <is>
-          <t>-0.167 (P = 0.426)</t>
+          <t>-0.124 (P = 0.446)</t>
         </is>
       </c>
     </row>
@@ -44830,83 +44830,83 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8.095</t>
+          <t>8.274</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>8.239</t>
+          <t>8.235</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>8.581</t>
+          <t>8.613</t>
         </is>
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>8.123</t>
+          <t>8.136</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>7.832</t>
+          <t>7.821</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr">
         <is>
-          <t>8.349</t>
+          <t>8.338</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>8.412</t>
+          <t>8.458</t>
         </is>
       </c>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr">
         <is>
-          <t>8.124</t>
+          <t>8.147</t>
         </is>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>7.767</t>
+          <t>7.777</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.094)</t>
+          <t>-0.033 (P = 0.655)</t>
         </is>
       </c>
       <c r="S398" t="inlineStr"/>
       <c r="T398" t="inlineStr">
         <is>
-          <t>0.110 (P = 0.507)</t>
+          <t>0.103 (P = 0.408)</t>
         </is>
       </c>
       <c r="U398" t="inlineStr">
         <is>
-          <t>-0.169 (P = 0.287)</t>
+          <t>-0.155 (P = 0.211)</t>
         </is>
       </c>
       <c r="V398" t="inlineStr"/>
       <c r="W398" t="inlineStr">
         <is>
-          <t>0.001 (P = 0.996)</t>
+          <t>0.011 (P = 0.949)</t>
         </is>
       </c>
       <c r="X398" t="inlineStr">
         <is>
-          <t>-0.065 (P = 0.781)</t>
+          <t>-0.043 (P = 0.814)</t>
         </is>
       </c>
     </row>
@@ -45381,7 +45381,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.586</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -45396,23 +45396,23 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>8.669</t>
+          <t>8.659</t>
         </is>
       </c>
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>8.461</t>
+          <t>8.561</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>8.376</t>
+          <t>8.411</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -45422,28 +45422,28 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>8.552</t>
+          <t>8.605</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>8.610</t>
+          <t>8.656</t>
         </is>
       </c>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr">
         <is>
-          <t>8.584</t>
+          <t>8.591</t>
         </is>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>8.321</t>
+          <t>8.319</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.003)</t>
+          <t>-0.018 (P = 0.795)</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -45453,23 +45453,23 @@
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>-0.072 (P = 0.668)</t>
+          <t>-0.018 (P = 0.860)</t>
         </is>
       </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>-0.058 (P = 0.722)</t>
+          <t>-0.003 (P = 0.982)</t>
         </is>
       </c>
       <c r="V403" t="inlineStr"/>
       <c r="W403" t="inlineStr">
         <is>
-          <t>0.124 (P = 0.632)</t>
+          <t>0.029 (P = 0.871)</t>
         </is>
       </c>
       <c r="X403" t="inlineStr">
         <is>
-          <t>-0.055 (P = 0.819)</t>
+          <t>-0.092 (P = 0.610)</t>
         </is>
       </c>
     </row>
@@ -45944,7 +45944,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -45954,28 +45954,28 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>7.731</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>8.131</t>
+          <t>8.135</t>
         </is>
       </c>
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.674</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.511</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>7.844</t>
+          <t>7.855</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -45985,28 +45985,28 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>7.957</t>
+          <t>7.985</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>7.969</t>
+          <t>8.003</t>
         </is>
       </c>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr">
         <is>
-          <t>7.592</t>
+          <t>7.566</t>
         </is>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>7.683</t>
+          <t>7.656</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.460)</t>
+          <t>0.028 (P = 0.704)</t>
         </is>
       </c>
       <c r="S408" t="inlineStr">
@@ -46016,23 +46016,23 @@
       </c>
       <c r="T408" t="inlineStr">
         <is>
-          <t>0.217 (P = 0.215)</t>
+          <t>0.254 (P = 0.044)</t>
         </is>
       </c>
       <c r="U408" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.338)</t>
+          <t>-0.132 (P = 0.295)</t>
         </is>
       </c>
       <c r="V408" t="inlineStr"/>
       <c r="W408" t="inlineStr">
         <is>
-          <t>-0.048 (P = 0.864)</t>
+          <t>-0.109 (P = 0.535)</t>
         </is>
       </c>
       <c r="X408" t="inlineStr">
         <is>
-          <t>0.180 (P = 0.432)</t>
+          <t>0.144 (P = 0.418)</t>
         </is>
       </c>
     </row>
@@ -46507,7 +46507,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>7.446</t>
+          <t>7.749</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -46517,28 +46517,28 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>7.788</t>
+          <t>7.808</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>8.039</t>
+          <t>8.051</t>
         </is>
       </c>
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>7.261</t>
+          <t>7.316</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>7.513</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>7.703</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -46548,28 +46548,28 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>7.817</t>
+          <t>7.815</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>7.972</t>
+          <t>7.997</t>
         </is>
       </c>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr">
         <is>
-          <t>7.357</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>7.348</t>
+          <t>7.377</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.005)</t>
+          <t>-0.035 (P = 0.599)</t>
         </is>
       </c>
       <c r="S413" t="inlineStr">
@@ -46579,23 +46579,23 @@
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>0.029 (P = 0.889)</t>
+          <t>0.007 (P = 0.949)</t>
         </is>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>-0.067 (P = 0.732)</t>
+          <t>-0.054 (P = 0.658)</t>
         </is>
       </c>
       <c r="V413" t="inlineStr"/>
       <c r="W413" t="inlineStr">
         <is>
-          <t>0.096 (P = 0.763)</t>
+          <t>0.006 (P = 0.975)</t>
         </is>
       </c>
       <c r="X413" t="inlineStr">
         <is>
-          <t>-0.166 (P = 0.536)</t>
+          <t>-0.104 (P = 0.454)</t>
         </is>
       </c>
     </row>
@@ -47070,7 +47070,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>8.391</t>
+          <t>8.610</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -47080,28 +47080,28 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>8.462</t>
+          <t>8.453</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>8.724</t>
+          <t>8.739</t>
         </is>
       </c>
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>8.473</t>
+          <t>8.494</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>8.714</t>
+          <t>8.707</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>8.574</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -47111,7 +47111,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>8.511</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -47122,17 +47122,17 @@
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="inlineStr">
         <is>
-          <t>8.667</t>
+          <t>8.621</t>
         </is>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>8.605</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.013)</t>
+          <t>-0.043 (P = 0.541)</t>
         </is>
       </c>
       <c r="S418" t="inlineStr">
@@ -47142,23 +47142,23 @@
       </c>
       <c r="T418" t="inlineStr">
         <is>
-          <t>0.038 (P = 0.830)</t>
+          <t>0.058 (P = 0.600)</t>
         </is>
       </c>
       <c r="U418" t="inlineStr">
         <is>
-          <t>-0.159 (P = 0.313)</t>
+          <t>-0.172 (P = 0.131)</t>
         </is>
       </c>
       <c r="V418" t="inlineStr"/>
       <c r="W418" t="inlineStr">
         <is>
-          <t>0.194 (P = 0.436)</t>
+          <t>0.126 (P = 0.523)</t>
         </is>
       </c>
       <c r="X418" t="inlineStr">
         <is>
-          <t>-0.108 (P = 0.589)</t>
+          <t>-0.109 (P = 0.535)</t>
         </is>
       </c>
     </row>
@@ -47633,34 +47633,34 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>7.788</t>
         </is>
       </c>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>7.728</t>
+          <t>7.805</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7.886</t>
+          <t>7.901</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>7.741</t>
+          <t>7.800</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>7.527</t>
+          <t>7.547</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>7.744</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="L423" t="inlineStr"/>
@@ -47671,45 +47671,45 @@
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.796</t>
         </is>
       </c>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr">
         <is>
-          <t>7.930</t>
+          <t>7.915</t>
         </is>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>7.489</t>
+          <t>7.492</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.344)</t>
+          <t>-0.048 (P = 0.527)</t>
         </is>
       </c>
       <c r="S423" t="inlineStr"/>
       <c r="T423" t="inlineStr">
         <is>
-          <t>0.001 (P = 0.997)</t>
+          <t>-0.076 (P = 0.548)</t>
         </is>
       </c>
       <c r="U423" t="inlineStr">
         <is>
-          <t>-0.086 (P = 0.637)</t>
+          <t>-0.105 (P = 0.413)</t>
         </is>
       </c>
       <c r="V423" t="inlineStr"/>
       <c r="W423" t="inlineStr">
         <is>
-          <t>0.189 (P = 0.518)</t>
+          <t>0.115 (P = 0.605)</t>
         </is>
       </c>
       <c r="X423" t="inlineStr">
         <is>
-          <t>-0.038 (P = 0.872)</t>
+          <t>-0.055 (P = 0.737)</t>
         </is>
       </c>
     </row>
@@ -48184,7 +48184,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8.038</t>
+          <t>8.082</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -48194,28 +48194,28 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>7.870</t>
+          <t>7.884</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>8.072</t>
+          <t>8.101</t>
         </is>
       </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>8.401</t>
+          <t>8.405</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>8.066</t>
+          <t>8.028</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.116</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -48225,28 +48225,28 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>8.004</t>
+          <t>8.034</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>8.183</t>
+          <t>8.188</t>
         </is>
       </c>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr">
         <is>
-          <t>8.356</t>
+          <t>8.339</t>
         </is>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.876</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.343)</t>
+          <t>0.033 (P = 0.666)</t>
         </is>
       </c>
       <c r="S428" t="inlineStr">
@@ -48256,23 +48256,23 @@
       </c>
       <c r="T428" t="inlineStr">
         <is>
-          <t>0.133 (P = 0.470)</t>
+          <t>0.150 (P = 0.240)</t>
         </is>
       </c>
       <c r="U428" t="inlineStr">
         <is>
-          <t>0.111 (P = 0.519)</t>
+          <t>0.087 (P = 0.514)</t>
         </is>
       </c>
       <c r="V428" t="inlineStr"/>
       <c r="W428" t="inlineStr">
         <is>
-          <t>-0.045 (P = 0.842)</t>
+          <t>-0.065 (P = 0.748)</t>
         </is>
       </c>
       <c r="X428" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.414)</t>
+          <t>-0.152 (P = 0.410)</t>
         </is>
       </c>
     </row>
@@ -48747,7 +48747,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>8.879</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -48757,28 +48757,28 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>8.702</t>
+          <t>8.711</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>8.890</t>
+          <t>8.908</t>
         </is>
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>9.093</t>
+          <t>9.096</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>8.862</t>
+          <t>8.856</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.871</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -48788,28 +48788,28 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>8.755</t>
+          <t>8.774</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>8.927</t>
+          <t>8.920</t>
         </is>
       </c>
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
         <is>
-          <t>8.912</t>
+          <t>8.887</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>8.899</t>
+          <t>8.898</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.051)</t>
+          <t>-0.008 (P = 0.894)</t>
         </is>
       </c>
       <c r="S433" t="inlineStr">
@@ -48819,23 +48819,23 @@
       </c>
       <c r="T433" t="inlineStr">
         <is>
-          <t>0.054 (P = 0.712)</t>
+          <t>0.063 (P = 0.532)</t>
         </is>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.791)</t>
+          <t>0.011 (P = 0.910)</t>
         </is>
       </c>
       <c r="V433" t="inlineStr"/>
       <c r="W433" t="inlineStr">
         <is>
-          <t>-0.181 (P = 0.360)</t>
+          <t>-0.209 (P = 0.240)</t>
         </is>
       </c>
       <c r="X433" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.830)</t>
+          <t>0.043 (P = 0.754)</t>
         </is>
       </c>
     </row>
@@ -49310,7 +49310,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>8.465</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -49320,28 +49320,28 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>8.589</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>8.428</t>
+          <t>8.478</t>
         </is>
       </c>
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>8.709</t>
+          <t>8.731</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>8.569</t>
+          <t>8.554</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>8.516</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -49351,28 +49351,28 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>8.376</t>
+          <t>8.402</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>8.564</t>
+          <t>8.556</t>
         </is>
       </c>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr">
         <is>
-          <t>8.566</t>
+          <t>8.577</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>8.577</t>
+          <t>8.581</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.452)</t>
+          <t>-0.036 (P = 0.555)</t>
         </is>
       </c>
       <c r="S438" t="inlineStr">
@@ -49382,23 +49382,23 @@
       </c>
       <c r="T438" t="inlineStr">
         <is>
-          <t>-0.213 (P = 0.176)</t>
+          <t>-0.166 (P = 0.127)</t>
         </is>
       </c>
       <c r="U438" t="inlineStr">
         <is>
-          <t>0.136 (P = 0.370)</t>
+          <t>0.078 (P = 0.454)</t>
         </is>
       </c>
       <c r="V438" t="inlineStr"/>
       <c r="W438" t="inlineStr">
         <is>
-          <t>-0.144 (P = 0.511)</t>
+          <t>-0.154 (P = 0.312)</t>
         </is>
       </c>
       <c r="X438" t="inlineStr">
         <is>
-          <t>0.008 (P = 0.967)</t>
+          <t>0.027 (P = 0.841)</t>
         </is>
       </c>
     </row>
@@ -49873,7 +49873,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -49935,7 +49935,7 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.000)</t>
+          <t>0.032 (P = 0.003)</t>
         </is>
       </c>
       <c r="S443" t="inlineStr">
@@ -49945,23 +49945,23 @@
       </c>
       <c r="T443" t="inlineStr">
         <is>
-          <t>0.039 (P = 0.266)</t>
+          <t>0.039 (P = 0.086)</t>
         </is>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>0.033 (P = 0.306)</t>
+          <t>0.033 (P = 0.090)</t>
         </is>
       </c>
       <c r="V443" t="inlineStr"/>
       <c r="W443" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.658)</t>
+          <t>0.016 (P = 0.440)</t>
         </is>
       </c>
       <c r="X443" t="inlineStr">
         <is>
-          <t>0.037 (P = 0.309)</t>
+          <t>0.037 (P = 0.090)</t>
         </is>
       </c>
     </row>
@@ -50392,7 +50392,7 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
@@ -50402,27 +50402,27 @@
       </c>
       <c r="T447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="V447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="W447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="X447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -50853,7 +50853,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S451" t="inlineStr">
@@ -50863,27 +50863,27 @@
       </c>
       <c r="T451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="V451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="W451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="X451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -51314,7 +51314,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S455" t="inlineStr">
@@ -51324,27 +51324,27 @@
       </c>
       <c r="T455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="V455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="W455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="X455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -51704,7 +51704,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>56.082</t>
+          <t>58.239</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -51714,28 +51714,28 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>59.768</t>
+          <t>59.730</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>58.211</t>
+          <t>58.403</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>52.216</t>
+          <t>52.218</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>61.341</t>
+          <t>61.342</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>59.365</t>
+          <t>59.629</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -51745,28 +51745,28 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>62.007</t>
+          <t>62.122</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>60.584</t>
+          <t>60.723</t>
         </is>
       </c>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr">
         <is>
-          <t>52.133</t>
+          <t>52.638</t>
         </is>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>60.021</t>
+          <t>60.413</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>3.283 (P = 0.004)</t>
+          <t>1.390 (P = 0.003)</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -51776,23 +51776,23 @@
       </c>
       <c r="T459" t="inlineStr">
         <is>
-          <t>2.239 (P = 0.411)</t>
+          <t>2.393 (P = 0.008)</t>
         </is>
       </c>
       <c r="U459" t="inlineStr">
         <is>
-          <t>2.373 (P = 0.352)</t>
+          <t>2.320 (P = 0.006)</t>
         </is>
       </c>
       <c r="V459" t="inlineStr"/>
       <c r="W459" t="inlineStr">
         <is>
-          <t>-0.083 (P = 0.982)</t>
+          <t>0.420 (P = 0.682)</t>
         </is>
       </c>
       <c r="X459" t="inlineStr">
         <is>
-          <t>-1.319 (P = 0.684)</t>
+          <t>-0.929 (P = 0.349)</t>
         </is>
       </c>
     </row>
@@ -52266,7 +52266,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>35.098</t>
+          <t>31.026</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -52276,28 +52276,28 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>32.123</t>
+          <t>31.542</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>34.269</t>
+          <t>34.262</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>28.006</t>
+          <t>27.977</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>27.372</t>
+          <t>26.928</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>31.701</t>
+          <t>31.393</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -52307,28 +52307,28 @@
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>32.026</t>
+          <t>31.708</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>35.354</t>
+          <t>35.166</t>
         </is>
       </c>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr">
         <is>
-          <t>27.689</t>
+          <t>27.199</t>
         </is>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>28.133</t>
+          <t>27.790</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>-3.396 (P = 0.001)</t>
+          <t>0.367 (P = 0.566)</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
@@ -52338,23 +52338,23 @@
       </c>
       <c r="T464" t="inlineStr">
         <is>
-          <t>-0.097 (P = 0.970)</t>
+          <t>0.165 (P = 0.886)</t>
         </is>
       </c>
       <c r="U464" t="inlineStr">
         <is>
-          <t>1.085 (P = 0.656)</t>
+          <t>0.904 (P = 0.429)</t>
         </is>
       </c>
       <c r="V464" t="inlineStr"/>
       <c r="W464" t="inlineStr">
         <is>
-          <t>-0.316 (P = 0.921)</t>
+          <t>-0.778 (P = 0.629)</t>
         </is>
       </c>
       <c r="X464" t="inlineStr">
         <is>
-          <t>0.761 (P = 0.777)</t>
+          <t>0.862 (P = 0.505)</t>
         </is>
       </c>
     </row>
@@ -52829,7 +52829,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>46.536</t>
+          <t>48.295</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -52839,28 +52839,28 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>47.957</t>
+          <t>48.176</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>51.214</t>
+          <t>52.305</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>42.698</t>
+          <t>42.720</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>46.703</t>
+          <t>46.381</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>50.572</t>
+          <t>50.740</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -52870,28 +52870,28 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>51.319</t>
+          <t>51.082</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>54.485</t>
+          <t>54.822</t>
         </is>
       </c>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr">
         <is>
-          <t>45.256</t>
+          <t>45.726</t>
         </is>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>47.150</t>
+          <t>47.482</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>4.037 (P = 0.000)</t>
+          <t>2.445 (P = 0.001)</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
@@ -52901,23 +52901,23 @@
       </c>
       <c r="T469" t="inlineStr">
         <is>
-          <t>3.362 (P = 0.166)</t>
+          <t>2.906 (P = 0.037)</t>
         </is>
       </c>
       <c r="U469" t="inlineStr">
         <is>
-          <t>3.271 (P = 0.145)</t>
+          <t>2.517 (P = 0.050)</t>
         </is>
       </c>
       <c r="V469" t="inlineStr"/>
       <c r="W469" t="inlineStr">
         <is>
-          <t>2.558 (P = 0.467)</t>
+          <t>3.006 (P = 0.052)</t>
         </is>
       </c>
       <c r="X469" t="inlineStr">
         <is>
-          <t>0.447 (P = 0.879)</t>
+          <t>1.101 (P = 0.452)</t>
         </is>
       </c>
     </row>
@@ -53391,7 +53391,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>51.524</t>
+          <t>54.388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -53401,28 +53401,28 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>55.015</t>
+          <t>55.356</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>55.015</t>
+          <t>55.113</t>
         </is>
       </c>
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>51.282</t>
+          <t>51.766</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>53.667</t>
+          <t>54.034</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>55.135</t>
+          <t>55.711</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -53432,28 +53432,28 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>55.897</t>
+          <t>56.916</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>56.567</t>
+          <t>57.048</t>
         </is>
       </c>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr">
         <is>
-          <t>52.189</t>
+          <t>52.549</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>54.038</t>
+          <t>54.385</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>3.611 (P = 0.004)</t>
+          <t>1.323 (P = 0.012)</t>
         </is>
       </c>
       <c r="S474" t="inlineStr">
@@ -53463,23 +53463,23 @@
       </c>
       <c r="T474" t="inlineStr">
         <is>
-          <t>0.882 (P = 0.767)</t>
+          <t>1.559 (P = 0.131)</t>
         </is>
       </c>
       <c r="U474" t="inlineStr">
         <is>
-          <t>1.553 (P = 0.563)</t>
+          <t>1.934 (P = 0.027)</t>
         </is>
       </c>
       <c r="V474" t="inlineStr"/>
       <c r="W474" t="inlineStr">
         <is>
-          <t>0.906 (P = 0.822)</t>
+          <t>0.783 (P = 0.527)</t>
         </is>
       </c>
       <c r="X474" t="inlineStr">
         <is>
-          <t>0.372 (P = 0.918)</t>
+          <t>0.351 (P = 0.766)</t>
         </is>
       </c>
     </row>
@@ -53953,83 +53953,83 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.316</t>
+          <t>5.499</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
-          <t>5.480</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>5.756</t>
+          <t>5.775</t>
         </is>
       </c>
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>4.978</t>
+          <t>5.006</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>5.429</t>
+          <t>5.453</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>5.698</t>
+          <t>5.704</t>
         </is>
       </c>
       <c r="L479" t="inlineStr"/>
       <c r="M479" t="inlineStr">
         <is>
-          <t>5.672</t>
+          <t>5.702</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>6.023</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr">
         <is>
-          <t>5.270</t>
+          <t>5.297</t>
         </is>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>5.519</t>
+          <t>5.525</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>0.382 (P = 0.000)</t>
+          <t>0.205 (P = 0.000)</t>
         </is>
       </c>
       <c r="S479" t="inlineStr"/>
       <c r="T479" t="inlineStr">
         <is>
-          <t>0.192 (P = 0.420)</t>
+          <t>0.211 (P = 0.056)</t>
         </is>
       </c>
       <c r="U479" t="inlineStr">
         <is>
-          <t>0.266 (P = 0.220)</t>
+          <t>0.225 (P = 0.023)</t>
         </is>
       </c>
       <c r="V479" t="inlineStr"/>
       <c r="W479" t="inlineStr">
         <is>
-          <t>0.292 (P = 0.382)</t>
+          <t>0.291 (P = 0.034)</t>
         </is>
       </c>
       <c r="X479" t="inlineStr">
         <is>
-          <t>0.090 (P = 0.759)</t>
+          <t>0.073 (P = 0.598)</t>
         </is>
       </c>
     </row>
